--- a/src/cases/test_cases.xlsx
+++ b/src/cases/test_cases.xlsx
@@ -1,200 +1,652 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12195" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
-    <sheet name="try" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="try" sheetId="1" r:id="rId1"/>
+    <sheet name="init" sheetId="2" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>HeadersCrypto</t>
+  </si>
+  <si>
+    <t>QueryString</t>
+  </si>
+  <si>
+    <t>RequestDataType</t>
+  </si>
+  <si>
+    <t>RequestData</t>
+  </si>
+  <si>
+    <t>SetupScript</t>
+  </si>
+  <si>
+    <t>RequestDataCrypto</t>
+  </si>
+  <si>
+    <t>ExtractRequestData</t>
+  </si>
+  <si>
+    <t>Jsonpath</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>RegexParamsList</t>
+  </si>
+  <si>
+    <t>RetrieveValue</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SqlParamsDict</t>
+  </si>
+  <si>
+    <t>TeardownScript</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>ErrorLog</t>
+  </si>
+  <si>
+    <t>清表</t>
+  </si>
+  <si>
+    <t>初始化查询sql</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{"select":{"select_one": "select username,password as pwd  from lea.user where username ='luoshunwen003';"}}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>正确的随机邮箱注册成功</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/register</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"email": "{{email}}", "password": "{{password}}"}</t>
+  </si>
+  <si>
+    <t># 前置脚本代码
+import json
+def setup(pm):
+    print("pm----------------&gt;", pm.variables)
+    # request_data = pm.variables  # 获取得到请求数据
+    """
+    request_data 的值:  {'Url': '/login',
+     'Headers': '{"Content-Type": "application/json"}',
+      'Query Str': None,
+       'Request Data Type': 'params',
+       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+       }
+    """
+    # request = pm.variables()
+    # email = json.loads(request.get("Request Data")).get("email")
+    # pm.update_environments("email", email)  # 设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{email}}"))
+setup(pm)</t>
+  </si>
+  <si>
+    <t>{"email":"$..email"}</t>
+  </si>
+  <si>
+    <t>{"token": "$.token", "userId": "$.id"}</t>
+  </si>
+  <si>
+    <t>{
+        "select":
+            {
+                "select_one": "select e.employee_name e_name,e.employee_salary e_salary,e.department e_dep from do_mysql.employee as e where e.employee_id ='a004';"
+            }
+    }</t>
+  </si>
+  <si>
+    <t>{"e_name":"$..e_name","e_salary":"$.select.select_one.e_salary","e_dep":"$..e_dep"}</t>
+  </si>
+  <si>
+    <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>注册成功的账号可以登录成功</t>
+  </si>
+  <si>
+    <t>/api/login</t>
+  </si>
+  <si>
+    <t># 后置脚本代码
+def tear_down(pm):
+    # vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
+    response = pm.variables  # 获取得到响应结果对象
+    response.json()
+    print(f"请求地址 --&gt; {response.request.url}")
+    print(f"请求头 --&gt; {response.request.headers}")
+    print(f"请求 body --&gt; {response.request.body}")
+    print(f"接口状态--&gt; {response.status_code}")
+    print(f"接口耗时--&gt; {response.elapsed}")
+    print(f"接口响应--&gt; {response.text}")
+    token = response.json()['token']
+    pm.update_environments("token", token)  # 重新设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+    # print("----&gt;pm.get_variables", pm.get_variables())
+tear_down(pm)</t>
+  </si>
+  <si>
+    <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"},{"check":{{responseTime}},"comparator":"gte","expect":300}]</t>
+  </si>
+  <si>
+    <t>用户列表</t>
+  </si>
+  <si>
+    <t>查询用户列表</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/users</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
+  </si>
+  <si>
+    <t>md5_sign</t>
+  </si>
+  <si>
+    <t>{"page":1}</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>sha1_sign</t>
+  </si>
+  <si>
+    <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}]</t>
+  </si>
+  <si>
+    <t>获取指定用户的信息</t>
+  </si>
+  <si>
+    <t>/api/users/{{userId}}</t>
+  </si>
+  <si>
+    <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "BSP_TOKEN": "7c7d70bfb079d72182156d9b80d7911c",
+  "USER_ENV_ID": "1320970534539886592",
+  "USER_ID": "60629040",
+  "USER_TENANT": "1320970534539886592"
+}
+</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>["test.txt"]</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Sheets</t>
+  </si>
+  <si>
+    <t>InitializeData</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>https://reqres.in</t>
+  </si>
+  <si>
+    <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "do_mysql",
+ "user":"root",
+ "password":"admin"
+}</t>
+  </si>
+  <si>
+    <t>["try"]</t>
+  </si>
+  <si>
+    <t>{
+"{{email}}":"eve.holt@reqres.in",
+     "{{password}}": "pistol"
+}</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>如何填写提取参数</t>
+  </si>
+  <si>
+    <t>断言的填写方式</t>
+  </si>
+  <si>
+    <t>内置的断言方法</t>
+  </si>
+  <si>
+    <t>sql 的填写方式及如何提取sql结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+  </si>
+  <si>
+    <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+  </si>
+  <si>
+    <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+  </si>
+  <si>
+    <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+  </si>
+  <si>
+    <t>如何使用已提取的参数：</t>
+  </si>
+  <si>
+    <t>断言也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>也可以像postman一样写前后置脚本代码段</t>
+  </si>
+  <si>
+    <t>sql 语句也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+  </si>
+  <si>
+    <t>替换方式依然是 {{}}，{{fun()}}</t>
+  </si>
+  <si>
+    <t>SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}
+该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
+那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
+数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
+  </si>
+  <si>
+    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+  </si>
+  <si>
+    <t>比如:
+SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}</t>
+  </si>
+  <si>
+    <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+  </si>
+  <si>
+    <t>后置脚本代码 与前置脚本的差不多</t>
+  </si>
+  <si>
+    <t>sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
+  </si>
+  <si>
+    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1" tint="0.05"/>
-      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="major"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -539,203 +991,203 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="21" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,14 +1394,15 @@
     <dxf>
       <font>
         <name val="宋体"/>
+        <scheme val="none"/>
+        <sz val="11"/>
         <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -969,8 +1422,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -990,8 +1443,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1021,8 +1474,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1052,19 +1505,19 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1088,8 +1541,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1112,7 +1565,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1140,7 +1593,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1166,7 +1619,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1192,7 +1645,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="180">
+        <gradientFill degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1215,8 +1668,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
     </dxf>
     <dxf>
@@ -1359,8 +1812,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1390,8 +1843,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1421,8 +1874,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1522,7 +1975,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1534,8 +1987,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFF8F8F8"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1565,8 +2018,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1596,11 +2049,11 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="270">
+        <gradientFill degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -1621,203 +2074,140 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1">
+    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{3FE47C8B-A286-40D3-9D14-F4A93FA45F59}">
       <tableStyleElement type="secondColumnStripe" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1">
+    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{33EF463E-ADEF-4465-B927-FF47A20732DA}">
       <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1">
+    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{6EB29E06-FE97-482D-8854-9124BFB84820}">
       <tableStyleElement type="secondColumnStripe" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1">
+    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{83A9C134-0DD5-49F2-B381-C9CBDEB05493}">
       <tableStyleElement type="totalRow" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1">
+    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{24C1EE1C-15D4-4B1C-8E02-299CFCCC9B01}">
       <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1">
+    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{4FC91566-E5F3-4B68-90D1-EBAB1C3787CE}">
       <tableStyleElement type="firstHeaderCell" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1">
+    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{80338840-5FE4-405E-A136-ABCBB318300E}">
       <tableStyleElement type="firstColumn" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1">
+    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{50C2255F-DA30-44C5-B0EA-0A83F956B7EA}">
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1">
+    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{ABDB0B93-B28F-481F-A49E-64C3DC15C759}">
       <tableStyleElement type="secondColumnStripe" dxfId="43"/>
     </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1">
+    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{4DB680FF-C3DF-44DB-AE88-03FEC4C23973}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1">
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{453B79B0-2EED-43CA-BE40-1B428CADF7F1}">
       <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1">
+    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{6CC8CAFB-11B2-47B9-8A68-19B0C04B5655}">
       <tableStyleElement type="totalRow" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1">
+    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{D811E132-A721-4BD3-90FE-CD1C6598536F}">
       <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
-    <tableStyle name="深浅交替4" count="1">
+    <tableStyle name="深浅交替4" count="1" xr9:uid="{A2B00647-C0C2-4803-B0C4-DCF505619C51}">
       <tableStyleElement type="firstHeaderCell" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1">
+    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{3C730A06-C32F-458D-8AE3-C5E55B3462B2}">
       <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1">
+    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{B41FA087-78EE-445E-94FE-4153A271D803}">
       <tableStyleElement type="totalRow" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1">
+    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{20E4F067-9BA9-484C-9C46-9FF74914BD6C}">
       <tableStyleElement type="totalRow" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="商务深色系列12" count="1">
+    <tableStyle name="商务深色系列12" count="1" xr9:uid="{445C7E29-02E3-4E3E-9DDD-13FFB6DC60B4}">
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="商务深色系列1" count="1">
+    <tableStyle name="商务深色系列1" count="1" xr9:uid="{1B4C03D5-68AF-460A-AD65-082453A106AE}">
       <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="商务首列填充05" count="1">
+    <tableStyle name="商务首列填充05" count="1" xr9:uid="{13694146-A692-4C15-9236-999BE91CA2BF}">
       <tableStyleElement type="firstColumn" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="商务首列填充04" count="1">
+    <tableStyle name="商务首列填充04" count="1" xr9:uid="{C72C8554-13FB-47FE-BD92-28D562D6B065}">
       <tableStyleElement type="firstColumn" dxfId="55"/>
     </tableStyle>
-    <tableStyle name="商务首列填充03" count="1">
+    <tableStyle name="商务首列填充03" count="1" xr9:uid="{C80CC57D-9B8A-4DE1-82CE-0819C1161BE5}">
       <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1">
+    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{A706DB69-7627-420E-995E-8B3CB569DE78}">
       <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1">
+    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{90836F7C-A2CC-416C-B6D9-A8E36EB333D6}">
       <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1">
+    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{B1D3DB91-7968-4ABF-A1BB-F8ABAF288DAF}">
       <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1">
+    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{31ED9677-DD79-46A4-8E3E-7CA361913102}">
       <tableStyleElement type="firstColumn" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1">
+    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{C0EA0F9F-4505-49FB-BA9A-9DD073E3202E}">
       <tableStyleElement type="firstColumn" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="首列填充系列2" count="1">
+    <tableStyle name="首列填充系列2" count="1" xr9:uid="{02FE64DC-310A-4370-94FC-8E8A73FA4159}">
       <tableStyleElement type="firstColumn" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1">
+    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{40FC0A5B-038D-4161-9A54-52ADCE991F7C}">
       <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1">
+    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{56FF82C9-E23C-459E-9D02-B86A51E7643B}">
       <tableStyleElement type="firstColumnStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1">
+    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{BD447AF3-D11D-45F6-AFB7-70BAC89264B6}">
       <tableStyleElement type="firstColumnStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1">
+    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{1A617668-0693-495F-B9EB-74E0DC8308A1}">
       <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1">
+    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{DE7A64A8-9CE9-4062-98F7-B5489D1FF393}">
       <tableStyleElement type="secondColumnStripe" dxfId="67"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1">
+    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{FBDF01F6-03E7-4386-876C-18622CFC4FBF}">
       <tableStyleElement type="secondColumnStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1">
+    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{E22BD071-DFEE-4387-A92E-9D4308F1928B}">
       <tableStyleElement type="firstColumnStripe" dxfId="69"/>
     </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1">
+    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{7D1591B3-6B37-47E8-BE47-8A9C33078A5D}">
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1">
+    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{135CA75A-619C-441C-8A88-4B43E8AA3BC7}">
       <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1">
+    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{2F373597-1D24-455E-B1BA-32FDC6EB14DB}">
       <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1">
+    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{C1032385-2972-4CBA-9D3C-66B049A232C9}">
       <tableStyleElement type="secondColumnStripe" dxfId="73"/>
     </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1">
+    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{0FE2F23B-1BE3-4898-B661-EA8AA02F0E1C}">
       <tableStyleElement type="secondColumnStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{E46FB711-AC6B-4E36-A7FA-87CB050426A3}">
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z13" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z13">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2115,913 +2505,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1"/>
   <cols>
-    <col width="2.45185185185185" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.4518518518519" customWidth="1" style="3" min="2" max="2"/>
-    <col width="15.8148148148148" customWidth="1" style="3" min="3" max="3"/>
-    <col width="4.27407407407407" customWidth="1" style="3" min="4" max="4"/>
-    <col width="5.27407407407407" customWidth="1" style="3" min="5" max="5"/>
-    <col width="7.91111111111111" customWidth="1" style="3" min="6" max="6"/>
-    <col width="16.6592592592593" customWidth="1" style="10" min="7" max="7"/>
-    <col width="20.1851851851852" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.1185185185185" customWidth="1" style="3" min="9" max="9"/>
-    <col width="22.3777777777778" customWidth="1" style="3" min="10" max="10"/>
-    <col width="17.6148148148148" customWidth="1" style="10" min="11" max="11"/>
-    <col width="16.9851851851852" customWidth="1" style="3" min="12" max="12"/>
-    <col width="15.237037037037" customWidth="1" style="3" min="13" max="13"/>
-    <col width="19.5481481481481" customWidth="1" style="3" min="14" max="14"/>
-    <col width="19.8148148148148" customWidth="1" style="3" min="15" max="15"/>
-    <col width="10.1481481481481" customWidth="1" style="3" min="16" max="16"/>
-    <col width="6.36296296296296" customWidth="1" style="3" min="17" max="17"/>
-    <col width="13.7259259259259" customWidth="1" style="3" min="18" max="18"/>
-    <col width="12.5333333333333" customWidth="1" style="3" min="19" max="19"/>
-    <col width="4.18518518518519" customWidth="1" style="3" min="20" max="20"/>
-    <col width="10.8148148148148" customWidth="1" style="3" min="21" max="21"/>
-    <col width="9.81481481481481" customWidth="1" style="3" min="22" max="22"/>
-    <col width="8.91111111111111" customWidth="1" style="3" min="23" max="23"/>
-    <col width="9.451851851851851" customWidth="1" style="3" min="24" max="24"/>
-    <col width="9.27407407407407" customWidth="1" style="3" min="25" max="25"/>
-    <col width="8.91111111111111" customWidth="1" style="3" min="26" max="26"/>
-    <col width="25.7777777777778" customWidth="1" style="3" min="27" max="16384"/>
+    <col min="1" max="1" width="2.45185185185185" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.4518518518519" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8148148148148" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.27407407407407" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.27407407407407" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.91111111111111" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.6592592592593" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.1851851851852" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.1185185185185" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.3777777777778" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.6148148148148" style="10" customWidth="1"/>
+    <col min="12" max="12" width="16.9851851851852" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.237037037037" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.5481481481481" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.8148148148148" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.1481481481481" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.36296296296296" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7259259259259" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.5333333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.3259259259259" style="3" customWidth="1"/>
+    <col min="21" max="21" width="16.5111111111111" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.81481481481481" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.91111111111111" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.45185185185185" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.27407407407407" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.91111111111111" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="8">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Headers</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>HeadersCrypto</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>QueryString</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>RequestDataType</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>RequestData</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>SetupScript</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>RequestDataCrypto</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>ExtractRequestData</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Jsonpath</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Regex</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>RegexParamsList</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>RetrieveValue</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>SqlParamsDict</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>TeardownScript</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>Assertion</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>ErrorLog</t>
-        </is>
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>清表</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>初始化查询sql</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="n"/>
-      <c r="J2" s="10" t="n"/>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="T2" s="12" t="inlineStr">
-        <is>
-          <t>{"select":{"select_one": "select username,password as pwd  from lea.user where username ='luoshunwen003';"}}</t>
-        </is>
-      </c>
-      <c r="U2" s="13" t="n"/>
-      <c r="V2" s="13" t="inlineStr"/>
-      <c r="W2" s="13" t="inlineStr"/>
-      <c r="X2" s="13" t="inlineStr"/>
-      <c r="Y2" s="13" t="inlineStr"/>
-      <c r="Z2" s="13" t="inlineStr"/>
-      <c r="AA2" s="5" t="n"/>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="5"/>
     </row>
-    <row r="3" customFormat="1" s="9">
-      <c r="A3" s="3" t="n">
+    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>注册</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>正确的随机邮箱注册成功</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.5</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>/api/register</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/json"}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>{"email": "{{email}}", "password": "{{password}}"}</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t># 前置脚本代码
-import json
-def setup(pm):
-    print("pm----------------&gt;", pm.variables)
-    # request_data = pm.variables  # 获取得到请求数据
-    """
-    request_data 的值:  {'Url': '/login',
-     'Headers': '{"Content-Type": "application/json"}',
-      'Query Str': None,
-       'Request Data Type': 'params',
-       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
-       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
-       }
-    """
-    # request = pm.variables()
-    # email = json.loads(request.get("Request Data")).get("email")
-    # pm.update_environments("email", email)  # 设置环境变量
-    # print("----&gt;pm.get_environments", pm.get_environments("{{email}}"))
-setup(pm)</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>{"email":"$..email"}</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>{"token": "$.token", "userId": "$.id"}</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>{
-        "select":
-            {
-                "select_one": "select e.employee_name e_name,e.employee_salary e_salary,e.department e_dep from do_mysql.employee as e where e.employee_id ='a004';"
-            }
-    }</t>
-        </is>
-      </c>
-      <c r="U3" s="3" t="inlineStr">
-        <is>
-          <t>{"e_name":"$..e_name","e_salary":"$.select.select_one.e_salary","e_dep":"$..e_dep"}</t>
-        </is>
-      </c>
-      <c r="V3" s="3" t="inlineStr"/>
-      <c r="W3" s="13" t="inlineStr">
-        <is>
-          <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
-        </is>
-      </c>
-      <c r="X3" s="13" t="inlineStr"/>
-      <c r="Y3" s="13" t="inlineStr"/>
-      <c r="Z3" s="13" t="inlineStr"/>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" s="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" customHeight="1" spans="1:27">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>登录</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>注册成功的账号可以登录成功</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.5</v>
       </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>/api/login</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/json"}</t>
-        </is>
-      </c>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>{"email": "{{email}}", "password": "{{password}}"}</t>
-        </is>
-      </c>
-      <c r="M4" s="10" t="n"/>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="T4" s="10" t="inlineStr"/>
-      <c r="U4" s="10" t="inlineStr"/>
-      <c r="V4" s="3" t="inlineStr">
-        <is>
-          <t># 后置脚本代码
-def tear_down(pm):
-    # vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
-    response = pm.variables  # 获取得到响应结果对象
-    response.json()
-    print(f"请求地址 --&gt; {response.request.url}")
-    print(f"请求头 --&gt; {response.request.headers}")
-    print(f"请求 body --&gt; {response.request.body}")
-    print(f"接口状态--&gt; {response.status_code}")
-    print(f"接口耗时--&gt; {response.elapsed}")
-    print(f"接口响应--&gt; {response.text}")
-    token = response.json()['token']
-    pm.update_environments("token", token)  # 重新设置环境变量
-    # print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
-    # print("----&gt;pm.get_variables", pm.get_variables())
-tear_down(pm)</t>
-        </is>
-      </c>
-      <c r="W4" s="13" t="inlineStr">
-        <is>
-          <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"},{"check":{{responseTime}},"comparator":"gte","expect":300}]</t>
-        </is>
-      </c>
-      <c r="X4" s="10" t="inlineStr"/>
-      <c r="Y4" s="10" t="inlineStr"/>
-      <c r="Z4" s="13" t="inlineStr"/>
-      <c r="AA4" s="5" t="n"/>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="5"/>
     </row>
-    <row r="5" s="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" customHeight="1" spans="1:27">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>用户列表</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>查询用户列表</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>/api/users</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>md5_sign</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="inlineStr">
-        <is>
-          <t>{"page":1}</t>
-        </is>
-      </c>
-      <c r="K5" s="10" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>sha1_sign</t>
-        </is>
-      </c>
-      <c r="T5" s="13" t="inlineStr"/>
-      <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="0" t="inlineStr"/>
-      <c r="W5" s="13" t="inlineStr">
-        <is>
-          <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}]</t>
-        </is>
-      </c>
-      <c r="X5" s="13" t="inlineStr"/>
-      <c r="Y5" s="13" t="inlineStr"/>
-      <c r="Z5" s="13" t="inlineStr"/>
-      <c r="AA5" s="5" t="n"/>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="5"/>
     </row>
-    <row r="6" s="1">
-      <c r="A6" s="3" t="n">
+    <row r="6" customHeight="1" spans="1:27">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>用户列表</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>获取指定用户的信息</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>/api/users/{{userId}}</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
-        </is>
-      </c>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="T6" s="13" t="inlineStr"/>
-      <c r="U6" s="3" t="inlineStr"/>
-      <c r="V6" s="0" t="inlineStr"/>
-      <c r="W6" s="13" t="inlineStr">
-        <is>
-          <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
-        </is>
-      </c>
-      <c r="X6" s="13" t="inlineStr"/>
-      <c r="Y6" s="13" t="inlineStr"/>
-      <c r="Z6" s="13" t="inlineStr"/>
-      <c r="AA6" s="5" t="n"/>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="5"/>
     </row>
-    <row r="7" s="1">
-      <c r="A7" s="3" t="n">
+    <row r="7" customHeight="1" spans="1:27">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>TIME</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="n">
+      <c r="F7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="T7" s="13" t="inlineStr"/>
-      <c r="U7" s="13" t="inlineStr"/>
-      <c r="V7" s="13" t="inlineStr"/>
-      <c r="W7" s="13" t="inlineStr"/>
-      <c r="X7" s="13" t="inlineStr"/>
-      <c r="Y7" s="13" t="inlineStr"/>
-      <c r="Z7" s="13" t="inlineStr"/>
-      <c r="AA7" s="5" t="n"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="3"/>
+      <c r="T7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="5"/>
     </row>
-    <row r="8" s="1">
-      <c r="A8" s="3" t="n">
+    <row r="8" customHeight="1" spans="1:26">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>文件上传</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>文件上传</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G8" s="10" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{
-  "BSP_TOKEN": "7c7d70bfb079d72182156d9b80d7911c",
-  "USER_ENV_ID": "1320970534539886592",
-  "USER_ID": "60629040",
-  "USER_TENANT": "1320970534539886592"
-}
-</t>
-        </is>
-      </c>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>["test.txt"]</t>
-        </is>
-      </c>
-      <c r="X8" s="0" t="inlineStr"/>
-      <c r="Y8" s="0" t="inlineStr"/>
-      <c r="Z8" s="0" t="inlineStr"/>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" s="1">
-      <c r="J9" s="10" t="n"/>
-      <c r="X9" s="0" t="inlineStr"/>
-      <c r="Y9" s="0" t="inlineStr"/>
-      <c r="Z9" s="0" t="inlineStr"/>
+    <row r="9" customHeight="1" spans="10:26">
+      <c r="J9" s="10"/>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" s="1">
-      <c r="J10" s="10" t="n"/>
-      <c r="X10" s="0" t="inlineStr"/>
-      <c r="Y10" s="0" t="inlineStr"/>
-      <c r="Z10" s="0" t="inlineStr"/>
+    <row r="10" customHeight="1" spans="10:26">
+      <c r="J10" s="10"/>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" s="1">
-      <c r="J11" s="10" t="n"/>
-      <c r="X11" s="0" t="inlineStr"/>
-      <c r="Y11" s="0" t="inlineStr"/>
-      <c r="Z11" s="0" t="inlineStr"/>
+    <row r="11" customHeight="1" spans="10:26">
+      <c r="J11" s="10"/>
+      <c r="X11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" s="1">
-      <c r="J12" s="10" t="n"/>
-      <c r="X12" s="0" t="inlineStr"/>
-      <c r="Y12" s="0" t="inlineStr"/>
-      <c r="Z12" s="0" t="inlineStr"/>
+    <row r="12" customHeight="1" spans="10:26">
+      <c r="J12" s="10"/>
+      <c r="X12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" s="1">
-      <c r="J13" s="10" t="n"/>
-      <c r="X13" s="0" t="inlineStr"/>
-      <c r="Y13" s="0" t="inlineStr"/>
-      <c r="Z13" s="0" t="inlineStr"/>
+    <row r="13" customHeight="1" spans="10:26">
+      <c r="J13" s="10"/>
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" priority="2" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="2">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" priority="7" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="7">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13">
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" priority="31" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 A9:Z1048576 E8:F8 H8:J8 L8:Z8 Z2:Z7">
-    <cfRule type="containsBlanks" priority="27" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="27">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="29" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="30" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y13">
-    <cfRule type="containsBlanks" priority="15" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="15">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="17">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E1048576 E8">
-    <cfRule type="cellIs" priority="26" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9:D13 E1 E2 E3 E4 E5 E6 E7 E8:E13 E14:E1048576 I1 J1 J14:J1048576 K1 K9:K1048576 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
-    <dataValidation sqref="F2 F3 F4 F5 F6 F7 F8:F13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 D8 D9:D13 E8:E13 E14:E1048576 J14:J1048576 K9:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8:F13">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation sqref="I2 I3:I4 I5 I6:I7 I8:I13 L7 M7 N2:N13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 I5 L7 M7 I3:I4 I6:I7 I8:I13 N2:N13">
       <formula1>"md5_sign,sha1_sign,rsa_sign"</formula1>
     </dataValidation>
-    <dataValidation sqref="K2 K3:K4 K5 K6 K8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K5 K6 K8 K3:K4">
       <formula1>"json,data,params,files"</formula1>
     </dataValidation>
-    <dataValidation sqref="I14:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I14:I1048576">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
-    <dataValidation sqref="N14:N1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N14:N1048576">
       <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G8" tooltip="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" display="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" tooltip="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
-    <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.5555555555556" customWidth="1" style="6" min="3" max="3"/>
-    <col width="24.5555555555556" customWidth="1" style="6" min="4" max="4"/>
-    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
-    <col width="20.1111111111111" customWidth="1" style="6" min="6" max="6"/>
-    <col width="52.8888888888889" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.1111111111111" customWidth="1" style="6" min="8" max="8"/>
-    <col width="7.36296296296296" customWidth="1" style="6" min="9" max="16384"/>
+    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Host</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Path</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Databases</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Sheets</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>InitializeData</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" s="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="215.25" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>https://reqres.in</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "do_mysql",
- "user":"root",
- "password":"admin"
-}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>["try"]</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-"{{email}}":"eve.holt@reqres.in",
-     "{{password}}": "pistol"
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" s="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="47" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" priority="133" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -3030,16 +3266,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="135" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{20d4c651-f9a1-4901-9f54-1986d55f1217}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="136" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" priority="73" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -3048,16 +3289,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="75" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ca5c5a51-7c68-4a98-b93f-b7e91a783500}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="76" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" priority="85" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -3066,16 +3312,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="87" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e3a8d195-0f8e-4bd7-a75e-51f47d14162c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" priority="69" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3084,19 +3335,24 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="71" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{abec9f04-dc8d-411a-86d3-745b91af2b28}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="72" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="60" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="59" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3105,16 +3361,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="57" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{01295e6d-4c5f-4d03-8870-af208fa05518}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" priority="68" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="67" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3123,16 +3384,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="65" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6ed8a4e1-109d-474e-bfc4-8424271c1361}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" priority="64" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="63" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3141,13 +3407,18 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="61" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9ef2c847-65d8-42b3-bd42-71c07e6489c4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" priority="1" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3156,11 +3427,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="3" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{756a7986-f9a0-4b8c-8903-85bef5ab0750}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3171,10 +3447,15 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{78410ba4-8d8c-40c9-ba08-b18184f61710}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" priority="142" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3183,16 +3464,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="144" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{eb883bcb-9674-4fb4-9649-6c9830feba5f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="145" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" priority="77" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3201,311 +3487,285 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="79" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{37914085-13fd-4505-a431-dfc291cda46d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="80" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" tooltip="https://reqres.in" display="https://reqres.in" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://reqres.in" tooltip="https://reqres.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{20d4c651-f9a1-4901-9f54-1986d55f1217}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ca5c5a51-7c68-4a98-b93f-b7e91a783500}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e3a8d195-0f8e-4bd7-a75e-51f47d14162c}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{abec9f04-dc8d-411a-86d3-745b91af2b28}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{01295e6d-4c5f-4d03-8870-af208fa05518}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6ed8a4e1-109d-474e-bfc4-8424271c1361}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:F3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9ef2c847-65d8-42b3-bd42-71c07e6489c4}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{756a7986-f9a0-4b8c-8903-85bef5ab0750}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{78410ba4-8d8c-40c9-ba08-b18184f61710}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{eb883bcb-9674-4fb4-9649-6c9830feba5f}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{37914085-13fd-4505-a431-dfc291cda46d}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:D2 C3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col width="58" customWidth="1" style="1" min="1" max="1"/>
-    <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>
-    <col width="47.6148148148148" customWidth="1" style="1" min="3" max="3"/>
-    <col width="109.955555555556" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.8888888888889" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.7777777777778" customWidth="1" style="1" min="8" max="8"/>
+    <col min="1" max="1" width="58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>如何填写提取参数</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>断言的填写方式</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>内置的断言方法</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>sql 的填写方式及如何提取sql结果</t>
-        </is>
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" s="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="6" t="n"/>
+    <row r="2" ht="346.5" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="18" customHeight="1" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>如何使用已提取的参数：</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>断言也可以使用变量替换</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>也可以像postman一样写前后置脚本代码段</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>sql 语句也可以使用变量替换</t>
-        </is>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="4" ht="209" customHeight="1" s="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>替换方式依然是 {{}}，{{fun()}}</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}
-该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
-那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
-数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
-        </is>
+    <row r="4" ht="209" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" s="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>比如:
-SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}</t>
-        </is>
+    <row r="5" ht="66" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>后置脚本代码 与前置脚本的差不多</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
-        </is>
+    <row r="6" ht="82.5" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="7" ht="198" customHeight="1" s="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+    <row r="7" ht="198" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="5" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/cases/test_cases.xlsx
+++ b/src/cases/test_cases.xlsx
@@ -1,652 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12195"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="29868" windowHeight="14628" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="try" sheetId="1" r:id="rId1"/>
-    <sheet name="init" sheetId="2" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
+    <sheet name="try" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>HeadersCrypto</t>
-  </si>
-  <si>
-    <t>QueryString</t>
-  </si>
-  <si>
-    <t>RequestDataType</t>
-  </si>
-  <si>
-    <t>RequestData</t>
-  </si>
-  <si>
-    <t>SetupScript</t>
-  </si>
-  <si>
-    <t>RequestDataCrypto</t>
-  </si>
-  <si>
-    <t>ExtractRequestData</t>
-  </si>
-  <si>
-    <t>Jsonpath</t>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>RegexParamsList</t>
-  </si>
-  <si>
-    <t>RetrieveValue</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>SqlParamsDict</t>
-  </si>
-  <si>
-    <t>TeardownScript</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Assertion</t>
-  </si>
-  <si>
-    <t>ErrorLog</t>
-  </si>
-  <si>
-    <t>清表</t>
-  </si>
-  <si>
-    <t>初始化查询sql</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>{"select":{"select_one": "select username,password as pwd  from lea.user where username ='luoshunwen003';"}}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>正确的随机邮箱注册成功</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/api/register</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"email": "{{email}}", "password": "{{password}}"}</t>
-  </si>
-  <si>
-    <t># 前置脚本代码
-import json
-def setup(pm):
-    print("pm----------------&gt;", pm.variables)
-    # request_data = pm.variables  # 获取得到请求数据
-    """
-    request_data 的值:  {'Url': '/login',
-     'Headers': '{"Content-Type": "application/json"}',
-      'Query Str': None,
-       'Request Data Type': 'params',
-       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
-       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
-       }
-    """
-    # request = pm.variables()
-    # email = json.loads(request.get("Request Data")).get("email")
-    # pm.update_environments("email", email)  # 设置环境变量
-    # print("----&gt;pm.get_environments", pm.get_environments("{{email}}"))
-setup(pm)</t>
-  </si>
-  <si>
-    <t>{"email":"$..email"}</t>
-  </si>
-  <si>
-    <t>{"token": "$.token", "userId": "$.id"}</t>
-  </si>
-  <si>
-    <t>{
-        "select":
-            {
-                "select_one": "select e.employee_name e_name,e.employee_salary e_salary,e.department e_dep from do_mysql.employee as e where e.employee_id ='a004';"
-            }
-    }</t>
-  </si>
-  <si>
-    <t>{"e_name":"$..e_name","e_salary":"$.select.select_one.e_salary","e_dep":"$..e_dep"}</t>
-  </si>
-  <si>
-    <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>注册成功的账号可以登录成功</t>
-  </si>
-  <si>
-    <t>/api/login</t>
-  </si>
-  <si>
-    <t># 后置脚本代码
-def tear_down(pm):
-    # vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
-    response = pm.variables  # 获取得到响应结果对象
-    response.json()
-    print(f"请求地址 --&gt; {response.request.url}")
-    print(f"请求头 --&gt; {response.request.headers}")
-    print(f"请求 body --&gt; {response.request.body}")
-    print(f"接口状态--&gt; {response.status_code}")
-    print(f"接口耗时--&gt; {response.elapsed}")
-    print(f"接口响应--&gt; {response.text}")
-    token = response.json()['token']
-    pm.update_environments("token", token)  # 重新设置环境变量
-    # print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
-    # print("----&gt;pm.get_variables", pm.get_variables())
-tear_down(pm)</t>
-  </si>
-  <si>
-    <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"},{"check":{{responseTime}},"comparator":"gte","expect":300}]</t>
-  </si>
-  <si>
-    <t>用户列表</t>
-  </si>
-  <si>
-    <t>查询用户列表</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>/api/users</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
-  </si>
-  <si>
-    <t>md5_sign</t>
-  </si>
-  <si>
-    <t>{"page":1}</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>sha1_sign</t>
-  </si>
-  <si>
-    <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}]</t>
-  </si>
-  <si>
-    <t>获取指定用户的信息</t>
-  </si>
-  <si>
-    <t>/api/users/{{userId}}</t>
-  </si>
-  <si>
-    <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>文件上传</t>
-  </si>
-  <si>
-    <t>https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "BSP_TOKEN": "7c7d70bfb079d72182156d9b80d7911c",
-  "USER_ENV_ID": "1320970534539886592",
-  "USER_ID": "60629040",
-  "USER_TENANT": "1320970534539886592"
-}
-</t>
-  </si>
-  <si>
-    <t>files</t>
-  </si>
-  <si>
-    <t>["test.txt"]</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Host</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Databases</t>
-  </si>
-  <si>
-    <t>Sheets</t>
-  </si>
-  <si>
-    <t>InitializeData</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>https://reqres.in</t>
-  </si>
-  <si>
-    <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "do_mysql",
- "user":"root",
- "password":"admin"
-}</t>
-  </si>
-  <si>
-    <t>["try"]</t>
-  </si>
-  <si>
-    <t>{
-"{{email}}":"eve.holt@reqres.in",
-     "{{password}}": "pistol"
-}</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>如何填写提取参数</t>
-  </si>
-  <si>
-    <t>断言的填写方式</t>
-  </si>
-  <si>
-    <t>内置的断言方法</t>
-  </si>
-  <si>
-    <t>sql 的填写方式及如何提取sql结果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-  </si>
-  <si>
-    <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-  </si>
-  <si>
-    <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-  </si>
-  <si>
-    <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-  </si>
-  <si>
-    <t>如何使用已提取的参数：</t>
-  </si>
-  <si>
-    <t>断言也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>也可以像postman一样写前后置脚本代码段</t>
-  </si>
-  <si>
-    <t>sql 语句也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-  </si>
-  <si>
-    <t>替换方式依然是 {{}}，{{fun()}}</t>
-  </si>
-  <si>
-    <t>SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}
-该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
-那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
-数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
-  </si>
-  <si>
-    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-  </si>
-  <si>
-    <t>比如:
-SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}</t>
-  </si>
-  <si>
-    <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-  </si>
-  <si>
-    <t>后置脚本代码 与前置脚本的差不多</t>
-  </si>
-  <si>
-    <t>sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
-  </si>
-  <si>
-    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1" tint="0.05"/>
+      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -991,203 +539,203 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="21" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,15 +942,14 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
         <sz val="11"/>
-        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1422,8 +969,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1443,8 +990,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1474,8 +1021,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1505,19 +1052,19 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1541,8 +1088,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1565,7 +1112,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1593,7 +1140,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1619,7 +1166,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1645,7 +1192,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill degree="180">
+        <gradientFill type="linear" degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1668,8 +1215,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
     </dxf>
     <dxf>
@@ -1812,8 +1359,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1843,8 +1390,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1874,8 +1421,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1975,7 +1522,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1987,8 +1534,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF8F8F8"/>
         <sz val="11"/>
-        <color rgb="FFF8F8F8"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2018,8 +1565,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2049,11 +1596,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <gradientFill degree="270">
+        <gradientFill type="linear" degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -2074,140 +1621,203 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{3FE47C8B-A286-40D3-9D14-F4A93FA45F59}">
+    <tableStyle name="自定义" pivot="0" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{33EF463E-ADEF-4465-B927-FF47A20732DA}">
+    <tableStyle name="黄色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{6EB29E06-FE97-482D-8854-9124BFB84820}">
+    <tableStyle name="紫色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{83A9C134-0DD5-49F2-B381-C9CBDEB05493}">
+    <tableStyle name="绿色标题行表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{24C1EE1C-15D4-4B1C-8E02-299CFCCC9B01}">
+    <tableStyle name="红色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{4FC91566-E5F3-4B68-90D1-EBAB1C3787CE}">
+    <tableStyle name="商务绿标题行表格样式" count="1">
       <tableStyleElement type="firstHeaderCell" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{80338840-5FE4-405E-A136-ABCBB318300E}">
+    <tableStyle name="藤萝紫线条表格样式" count="1">
       <tableStyleElement type="firstColumn" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{50C2255F-DA30-44C5-B0EA-0A83F956B7EA}">
+    <tableStyle name="蓝色线条表格样式" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{ABDB0B93-B28F-481F-A49E-64C3DC15C759}">
+    <tableStyle name="蓝色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="43"/>
     </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{4DB680FF-C3DF-44DB-AE88-03FEC4C23973}">
+    <tableStyle name="单色渐变商务蓝表格样式" count="1">
       <tableStyleElement type="wholeTable" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{453B79B0-2EED-43CA-BE40-1B428CADF7F1}">
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{6CC8CAFB-11B2-47B9-8A68-19B0C04B5655}">
+    <tableStyle name="汇总红蓝渐变表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{D811E132-A721-4BD3-90FE-CD1C6598536F}">
+    <tableStyle name="汇总红黄渐变表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
-    <tableStyle name="深浅交替4" count="1" xr9:uid="{A2B00647-C0C2-4803-B0C4-DCF505619C51}">
+    <tableStyle name="深浅交替4" count="1">
       <tableStyleElement type="firstHeaderCell" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{3C730A06-C32F-458D-8AE3-C5E55B3462B2}">
+    <tableStyle name="商务深棕双色表格样式1" count="1">
       <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{B41FA087-78EE-445E-94FE-4153A271D803}">
+    <tableStyle name="商务深紫双色表格样式1" count="1">
       <tableStyleElement type="totalRow" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{20E4F067-9BA9-484C-9C46-9FF74914BD6C}">
+    <tableStyle name="商务深灰双色表格样式1" count="1">
       <tableStyleElement type="totalRow" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="商务深色系列12" count="1" xr9:uid="{445C7E29-02E3-4E3E-9DDD-13FFB6DC60B4}">
+    <tableStyle name="商务深色系列12" count="1">
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="商务深色系列1" count="1" xr9:uid="{1B4C03D5-68AF-460A-AD65-082453A106AE}">
+    <tableStyle name="商务深色系列1" count="1">
       <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="商务首列填充05" count="1" xr9:uid="{13694146-A692-4C15-9236-999BE91CA2BF}">
+    <tableStyle name="商务首列填充05" count="1">
       <tableStyleElement type="firstColumn" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="商务首列填充04" count="1" xr9:uid="{C72C8554-13FB-47FE-BD92-28D562D6B065}">
+    <tableStyle name="商务首列填充04" count="1">
       <tableStyleElement type="firstColumn" dxfId="55"/>
     </tableStyle>
-    <tableStyle name="商务首列填充03" count="1" xr9:uid="{C80CC57D-9B8A-4DE1-82CE-0819C1161BE5}">
+    <tableStyle name="商务首列填充03" count="1">
       <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{A706DB69-7627-420E-995E-8B3CB569DE78}">
+    <tableStyle name="商务隔行填充03" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{90836F7C-A2CC-416C-B6D9-A8E36EB333D6}">
+    <tableStyle name="商务首列填充汇总01" count="1">
       <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{B1D3DB91-7968-4ABF-A1BB-F8ABAF288DAF}">
+    <tableStyle name="首行首列填充表格样式67" count="1">
       <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{31ED9677-DD79-46A4-8E3E-7CA361913102}">
+    <tableStyle name="首行首列填充表格样式68" count="1">
       <tableStyleElement type="firstColumn" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{C0EA0F9F-4505-49FB-BA9A-9DD073E3202E}">
+    <tableStyle name="首行首列填充表格样式64" count="1">
       <tableStyleElement type="firstColumn" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="首列填充系列2" count="1" xr9:uid="{02FE64DC-310A-4370-94FC-8E8A73FA4159}">
+    <tableStyle name="首列填充系列2" count="1">
       <tableStyleElement type="firstColumn" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{40FC0A5B-038D-4161-9A54-52ADCE991F7C}">
+    <tableStyle name="首行首列填充表格样式3" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{56FF82C9-E23C-459E-9D02-B86A51E7643B}">
+    <tableStyle name="首行首列填充表格样式6" count="1">
       <tableStyleElement type="firstColumnStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{BD447AF3-D11D-45F6-AFB7-70BAC89264B6}">
+    <tableStyle name="首行首列填充表格样式10" count="1">
       <tableStyleElement type="firstColumnStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{1A617668-0693-495F-B9EB-74E0DC8308A1}">
+    <tableStyle name="镶边列表格样式10" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{DE7A64A8-9CE9-4062-98F7-B5489D1FF393}">
+    <tableStyle name="首行首列填充表格样式1" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="67"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{FBDF01F6-03E7-4386-876C-18622CFC4FBF}">
+    <tableStyle name="首行首列填充表格样式5" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{E22BD071-DFEE-4387-A92E-9D4308F1928B}">
+    <tableStyle name="首行首列填充表格样式8" count="1">
       <tableStyleElement type="firstColumnStripe" dxfId="69"/>
     </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{7D1591B3-6B37-47E8-BE47-8A9C33078A5D}">
+    <tableStyle name="水彩85.xlsx" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{135CA75A-619C-441C-8A88-4B43E8AA3BC7}">
+    <tableStyle name="黑灰渐变行" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{2F373597-1D24-455E-B1BA-32FDC6EB14DB}">
+    <tableStyle name="镶边列表格样式9" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{C1032385-2972-4CBA-9D3C-66B049A232C9}">
+    <tableStyle name="镶边列表格样式7" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="73"/>
     </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{0FE2F23B-1BE3-4898-B661-EA8AA02F0E1C}">
+    <tableStyle name="渐变色镶边列表格样式2" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{E46FB711-AC6B-4E36-A7FA-87CB050426A3}">
+    <tableStyle name="表样式 1" pivot="0" count="1">
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z13" headerRowCount="1">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2505,759 +2115,973 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.45185185185185" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.4518518518519" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.8148148148148" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.27407407407407" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.27407407407407" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.91111111111111" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.6592592592593" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.1851851851852" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.1185185185185" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.3777777777778" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.6148148148148" style="10" customWidth="1"/>
-    <col min="12" max="12" width="16.9851851851852" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.237037037037" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.5481481481481" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.8148148148148" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.1481481481481" style="3" customWidth="1"/>
-    <col min="17" max="17" width="6.36296296296296" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.7259259259259" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.5333333333333" style="3" customWidth="1"/>
-    <col min="20" max="20" width="13.3259259259259" style="3" customWidth="1"/>
-    <col min="21" max="21" width="16.5111111111111" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.81481481481481" style="3" customWidth="1"/>
-    <col min="23" max="23" width="8.91111111111111" style="3" customWidth="1"/>
-    <col min="24" max="24" width="9.45185185185185" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9.27407407407407" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.91111111111111" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
+    <col width="2.45454545454545" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.4545454545455" customWidth="1" style="3" min="2" max="2"/>
+    <col width="15.8181818181818" customWidth="1" style="3" min="3" max="3"/>
+    <col width="4.27272727272727" customWidth="1" style="3" min="4" max="4"/>
+    <col width="5.27272727272727" customWidth="1" style="3" min="5" max="5"/>
+    <col width="7.90909090909091" customWidth="1" style="3" min="6" max="6"/>
+    <col width="16.6590909090909" customWidth="1" style="10" min="7" max="7"/>
+    <col width="20.1818181818182" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.1212121212121" customWidth="1" style="3" min="9" max="9"/>
+    <col width="22.3787878787879" customWidth="1" style="3" min="10" max="10"/>
+    <col width="17.6136363636364" customWidth="1" style="10" min="11" max="11"/>
+    <col width="16.9848484848485" customWidth="1" style="3" min="12" max="12"/>
+    <col width="15.2348484848485" customWidth="1" style="3" min="13" max="13"/>
+    <col width="19.5454545454545" customWidth="1" style="3" min="14" max="14"/>
+    <col width="19.8181818181818" customWidth="1" style="3" min="15" max="15"/>
+    <col width="10.1515151515152" customWidth="1" style="3" min="16" max="16"/>
+    <col width="6.36363636363636" customWidth="1" style="3" min="17" max="17"/>
+    <col width="13.7272727272727" customWidth="1" style="3" min="18" max="18"/>
+    <col width="12.530303030303" customWidth="1" style="3" min="19" max="19"/>
+    <col width="13.3257575757576" customWidth="1" style="3" min="20" max="20"/>
+    <col width="16.5075757575758" customWidth="1" style="3" min="21" max="21"/>
+    <col width="9.81818181818182" customWidth="1" style="3" min="22" max="22"/>
+    <col width="8.90909090909091" customWidth="1" style="3" min="23" max="23"/>
+    <col width="9.45454545454546" customWidth="1" style="3" min="24" max="24"/>
+    <col width="9.27272727272727" customWidth="1" style="3" min="25" max="25"/>
+    <col width="8.90909090909091" customWidth="1" style="3" min="26" max="26"/>
+    <col width="25.780303030303" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="1" s="8">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Headers</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>HeadersCrypto</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>QueryString</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
+          <t>RequestDataType</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>RequestData</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>SetupScript</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>RequestDataCrypto</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>ExtractRequestData</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Jsonpath</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>RegexParamsList</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>RetrieveValue</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>SqlParamsDict</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>TeardownScript</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Assertion</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>ErrorLog</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="3">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>清表</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>初始化查询sql</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="n"/>
+      <c r="J2" s="10" t="n"/>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="T2" s="12" t="inlineStr">
+        <is>
+          <t>{"select":{"select_one": "select username,password as pwd  from lea.user where username ='luoshunwen003';"}}</t>
+        </is>
+      </c>
+      <c r="U2" s="13" t="n"/>
+      <c r="V2" s="13" t="inlineStr"/>
+      <c r="W2" s="13" t="inlineStr"/>
+      <c r="X2" s="13" t="inlineStr"/>
+      <c r="Y2" s="13" t="inlineStr"/>
+      <c r="Z2" s="13" t="inlineStr"/>
+      <c r="AA2" s="5" t="n"/>
+    </row>
+    <row r="3" customFormat="1" s="9">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>正确的随机邮箱注册成功</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>/api/register</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json"}</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="K3" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>{"email": "{{email}}", "password": "{{password}}"}</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t># 前置脚本代码
+import json
+def setup(pm):
+    print("pm----------------&gt;", pm.variables)
+    # request_data = pm.variables  # 获取得到请求数据
+    """
+    request_data 的值:  {'Url': '/login',
+     'Headers': '{"Content-Type": "application/json"}',
+      'Query Str': None,
+       'Request Data Type': 'params',
+       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+       }
+    """
+    # request = pm.variables()
+    # email = json.loads(request.get("Request Data")).get("email")
+    # pm.update_environments("email", email)  # 设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{email}}"))
+setup(pm)</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>{"email":"$..email"}</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>{"token": "$.token", "userId": "$.id"}</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>{
+        "select":
+            {
+                "select_one": "select name,age from test.test_ea as e where e.name ='kira';"
+            }
+    }</t>
+        </is>
+      </c>
+      <c r="U3" s="3" t="inlineStr">
+        <is>
+          <t>{"e_name":"$..name","e_salary":"$.select.select_one.age","e_age":"$..age"}</t>
+        </is>
+      </c>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="13" t="inlineStr">
+        <is>
+          <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
+        </is>
+      </c>
+      <c r="X3" s="13" t="inlineStr">
+        <is>
+          <t>{"id":4,"token":"QpwL5tke4Pnpja7X4"}</t>
+        </is>
+      </c>
+      <c r="Y3" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z3" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>注册成功的账号可以登录成功</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>/api/login</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json"}</t>
+        </is>
+      </c>
+      <c r="J4" s="10" t="n"/>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>{"email": "{{email}}", "password": "{{password}}"}</t>
+        </is>
+      </c>
+      <c r="M4" s="10" t="n"/>
+      <c r="O4" s="10" t="n"/>
+      <c r="P4" s="10" t="n"/>
+      <c r="Q4" s="10" t="n"/>
+      <c r="R4" s="10" t="n"/>
+      <c r="S4" s="10" t="n"/>
+      <c r="T4" s="10" t="inlineStr"/>
+      <c r="U4" s="10" t="inlineStr"/>
+      <c r="V4" s="3" t="inlineStr">
+        <is>
+          <t># 后置脚本代码
+def tear_down(pm):
+    # vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
+    response = pm.variables  # 获取得到响应结果对象
+    response.json()
+    print(f"请求地址 --&gt; {response.request.url}")
+    print(f"请求头 --&gt; {response.request.headers}")
+    print(f"请求 body --&gt; {response.request.body}")
+    print(f"接口状态--&gt; {response.status_code}")
+    print(f"接口耗时--&gt; {response.elapsed}")
+    print(f"接口响应--&gt; {response.text}")
+    token = response.json()['token']
+    pm.update_environments("token", token)  # 重新设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+    # print("----&gt;pm.get_variables", pm.get_variables())
+tear_down(pm)</t>
+        </is>
+      </c>
+      <c r="W4" s="13" t="inlineStr">
+        <is>
+          <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"},{"check":{{responseTime}},"comparator":"gte","expect":300}]</t>
+        </is>
+      </c>
+      <c r="X4" s="10" t="inlineStr">
+        <is>
+          <t>{"token":"QpwL5tke4Pnpja7X4"}</t>
+        </is>
+      </c>
+      <c r="Y4" s="10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z4" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 463.1, '期望值': 300, '实际值': 463.1, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
+        </is>
+      </c>
+      <c r="AA4" s="5" t="n"/>
+    </row>
+    <row r="5" s="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>用户列表</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>查询用户列表</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>/api/users</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>md5_sign</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="inlineStr">
+        <is>
+          <t>{"page":1}</t>
+        </is>
+      </c>
+      <c r="K5" s="10" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>sha1_sign</t>
+        </is>
+      </c>
+      <c r="T5" s="13" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="0" t="inlineStr"/>
+      <c r="W5" s="13" t="inlineStr">
+        <is>
+          <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}]</t>
+        </is>
+      </c>
+      <c r="X5" s="13" t="inlineStr">
+        <is>
+          <t>{"page":1,"per_page":6,"total":12,"total_pages":2,"data":[{"id":1,"email":"george.bluth@reqres.in","first_name":"George","last_name":"Bluth","avatar":"https://reqres.in/img/faces/1-image.jpg"},{"id":2,"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","avatar":"https://reqres.in/img/faces/2-image.jpg"},{"id":3,"email":"emma.wong@reqres.in","first_name":"Emma","last_name":"Wong","avatar":"https://reqres.in/img/faces/3-image.jpg"},{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},{"id":5,"email":"charles.morris@reqres.in","first_name":"Charles","last_name":"Morris","avatar":"https://reqres.in/img/faces/5-image.jpg"},{"id":6,"email":"tracey.ramos@reqres.in","first_name":"Tracey","last_name":"Ramos","avatar":"https://reqres.in/img/faces/6-image.jpg"}],"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
+        </is>
+      </c>
+      <c r="Y5" s="13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z5" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '200', '期望值': 200, '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '失败'}]</t>
+        </is>
+      </c>
+      <c r="AA5" s="5" t="n"/>
+    </row>
+    <row r="6" s="1">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>用户列表</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>获取指定用户的信息</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>/api/users/{{userId}}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
+        </is>
+      </c>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="T6" s="13" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="0" t="inlineStr"/>
+      <c r="W6" s="13" t="inlineStr">
+        <is>
+          <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
+        </is>
+      </c>
+      <c r="X6" s="13" t="inlineStr">
+        <is>
+          <t>{"data":{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
+        </is>
+      </c>
+      <c r="Y6" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z6" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '$.data.id', '期望值': 4, '实际值': 4, '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '$.data.email', '期望值': 'eve.holt@reqres.in', '实际值': 'eve.holt@reqres.in', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="n"/>
+    </row>
+    <row r="7" s="1">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="T7" s="13" t="inlineStr"/>
+      <c r="U7" s="13" t="inlineStr"/>
+      <c r="V7" s="13" t="inlineStr"/>
+      <c r="W7" s="13" t="inlineStr"/>
+      <c r="X7" s="13" t="inlineStr"/>
+      <c r="Y7" s="13" t="inlineStr"/>
+      <c r="Z7" s="13" t="inlineStr"/>
+      <c r="AA7" s="5" t="n"/>
+    </row>
+    <row r="8" s="1">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>文件上传</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>文件上传</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{
+  "BSP_TOKEN": "7c7d70bfb079d72182156d9b80d7911c",
+  "USER_ENV_ID": "1320970534539886592",
+  "USER_ID": "60629040",
+  "USER_TENANT": "1320970534539886592"
+}
+</t>
+        </is>
+      </c>
+      <c r="J8" s="10" t="n"/>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>["test.txt"]</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>{"code":503,"data":null,"message":"Failed to handle request [POST https://ibs-gateway.ibs-pre/ibs-file/file-upload/upload-image]: 503 SERVICE_UNAVAILABLE \"Unable to find instance for APP-API\""}</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t>未填写断言信息，默认执行断言请求返回的状态码！！！</t>
+        </is>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="5"/>
+    <row r="9" s="1">
+      <c r="J9" s="10" t="n"/>
+      <c r="X9" s="0" t="inlineStr"/>
+      <c r="Y9" s="0" t="inlineStr"/>
+      <c r="Z9" s="0" t="inlineStr"/>
     </row>
-    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>31</v>
-      </c>
+    <row r="10" s="1">
+      <c r="J10" s="10" t="n"/>
+      <c r="X10" s="0" t="inlineStr"/>
+      <c r="Y10" s="0" t="inlineStr"/>
+      <c r="Z10" s="0" t="inlineStr"/>
     </row>
-    <row r="4" customHeight="1" spans="1:27">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" s="5"/>
+    <row r="11" s="1">
+      <c r="J11" s="10" t="n"/>
+      <c r="X11" s="0" t="inlineStr"/>
+      <c r="Y11" s="0" t="inlineStr"/>
+      <c r="Z11" s="0" t="inlineStr"/>
     </row>
-    <row r="5" customHeight="1" spans="1:27">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA5" s="5"/>
+    <row r="12" s="1">
+      <c r="J12" s="10" t="n"/>
+      <c r="X12" s="0" t="inlineStr"/>
+      <c r="Y12" s="0" t="inlineStr"/>
+      <c r="Z12" s="0" t="inlineStr"/>
     </row>
-    <row r="6" customHeight="1" spans="1:27">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:27">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="10">
-        <v>100</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="3"/>
-      <c r="T7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:26">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="X8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="10:26">
-      <c r="J9" s="10"/>
-      <c r="X9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="10:26">
-      <c r="J10" s="10"/>
-      <c r="X10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="10:26">
-      <c r="J11" s="10"/>
-      <c r="X11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="10:26">
-      <c r="J12" s="10"/>
-      <c r="X12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="10:26">
-      <c r="J13" s="10"/>
-      <c r="X13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>31</v>
-      </c>
+    <row r="13" s="1">
+      <c r="J13" s="10" t="n"/>
+      <c r="X13" s="0" t="inlineStr"/>
+      <c r="Y13" s="0" t="inlineStr"/>
+      <c r="Z13" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" dxfId="26" priority="2">
+    <cfRule type="containsBlanks" priority="2" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" priority="3" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" priority="4" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" dxfId="26" priority="7">
+    <cfRule type="containsBlanks" priority="7" dxfId="26">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" priority="8" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" priority="9" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" priority="19" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" priority="31" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 A9:Z1048576 E8:F8 H8:J8 L8:Z8 Z2:Z7">
-    <cfRule type="containsBlanks" dxfId="26" priority="27">
+    <cfRule type="containsBlanks" priority="27" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" priority="28" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" priority="29" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y13">
-    <cfRule type="containsBlanks" dxfId="26" priority="15">
+    <cfRule type="containsBlanks" priority="15" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" priority="16" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" priority="17" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E1048576 E8">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" priority="26" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 D8 D9:D13 E8:E13 E14:E1048576 J14:J1048576 K9:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8:F13">
+    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9:D13 E1 E2 E3 E4 E5 E6 E7 E8:E13 E14:E1048576 I1 J1 J14:J1048576 K1 K9:K1048576 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
+    <dataValidation sqref="F2 F3 F4 F5 F6 F7 F8:F13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 I5 L7 M7 I3:I4 I6:I7 I8:I13 N2:N13">
+    <dataValidation sqref="I2 I3:I4 I5 I6:I7 I8:I13 L7 M7 N2:N13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"md5_sign,sha1_sign,rsa_sign"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K5 K6 K8 K3:K4">
+    <dataValidation sqref="K2 K3:K4 K5 K6 K8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"json,data,params,files"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I14:I1048576">
+    <dataValidation sqref="I14:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N14:N1048576">
+    <dataValidation sqref="N14:N1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId2" display="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" tooltip="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image"/>
+    <hyperlink ref="G8" tooltip="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" display="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
+    <col width="2.5530303030303" customWidth="1" style="6" min="1" max="1"/>
+    <col width="29.1136363636364" customWidth="1" style="6" min="2" max="2"/>
+    <col width="34.5530303030303" customWidth="1" style="6" min="3" max="3"/>
+    <col width="24.5530303030303" customWidth="1" style="6" min="4" max="4"/>
+    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
+    <col width="20.1136363636364" customWidth="1" style="6" min="6" max="6"/>
+    <col width="52.8863636363636" customWidth="1" style="6" min="7" max="7"/>
+    <col width="11.1136363636364" customWidth="1" style="6" min="8" max="8"/>
+    <col width="7.36363636363636" customWidth="1" style="6" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
+    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Environment</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Host</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Databases</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Sheets</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>InitializeData</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" ht="215.25" customHeight="1" s="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://reqres.in</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "test",
+ "user":"root",
+ "password":""
+}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>["try"]</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{
+"{{email}}":"eve.holt@reqres.in",
+     "{{password}}": "pistol"
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+    <row r="3" ht="47" customHeight="1" s="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="32" priority="133">
+    <cfRule type="containsBlanks" priority="133" dxfId="32">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -3266,21 +3090,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20d4c651-f9a1-4901-9f54-1986d55f1217}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="135">
+    </cfRule>
+    <cfRule type="expression" priority="135" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="136">
+    <cfRule type="expression" priority="136" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="32" priority="73">
+    <cfRule type="containsBlanks" priority="73" dxfId="32">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -3289,21 +3108,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ca5c5a51-7c68-4a98-b93f-b7e91a783500}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="75">
+    </cfRule>
+    <cfRule type="expression" priority="75" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="76">
+    <cfRule type="expression" priority="76" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="32" priority="85">
+    <cfRule type="containsBlanks" priority="85" dxfId="32">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -3312,21 +3126,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3a8d195-0f8e-4bd7-a75e-51f47d14162c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="87">
+    </cfRule>
+    <cfRule type="expression" priority="87" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="88">
+    <cfRule type="expression" priority="88" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="32" priority="69">
+    <cfRule type="containsBlanks" priority="69" dxfId="32">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3335,24 +3144,19 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abec9f04-dc8d-411a-86d3-745b91af2b28}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="71">
+    </cfRule>
+    <cfRule type="expression" priority="71" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="72">
+    <cfRule type="expression" priority="72" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="34" priority="60">
+    <cfRule type="expression" priority="60" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="59">
+    <cfRule type="expression" priority="59" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3361,21 +3165,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01295e6d-4c5f-4d03-8870-af208fa05518}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="57">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="57" dxfId="32">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="34" priority="68">
+    <cfRule type="expression" priority="68" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="67">
+    <cfRule type="expression" priority="67" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3384,21 +3183,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ed8a4e1-109d-474e-bfc4-8424271c1361}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="65">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="65" dxfId="32">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" priority="64" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="63">
+    <cfRule type="expression" priority="63" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3407,18 +3201,13 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ef2c847-65d8-42b3-bd42-71c07e6489c4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="61">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="61" dxfId="32">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="32" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="32">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3427,16 +3216,11 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{756a7986-f9a0-4b8c-8903-85bef5ab0750}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" priority="4" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3447,15 +3231,10 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78410ba4-8d8c-40c9-ba08-b18184f61710}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="32" priority="142">
+    <cfRule type="containsBlanks" priority="142" dxfId="32">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3464,21 +3243,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eb883bcb-9674-4fb4-9649-6c9830feba5f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="144">
+    </cfRule>
+    <cfRule type="expression" priority="144" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="145">
+    <cfRule type="expression" priority="145" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="32" priority="77">
+    <cfRule type="containsBlanks" priority="77" dxfId="32">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3487,285 +3261,311 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37914085-13fd-4505-a431-dfc291cda46d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="79">
+    </cfRule>
+    <cfRule type="expression" priority="79" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="80">
+    <cfRule type="expression" priority="80" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://reqres.in" tooltip="https://reqres.in"/>
+    <hyperlink ref="C2" tooltip="https://reqres.in" display="https://reqres.in" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{20d4c651-f9a1-4901-9f54-1986d55f1217}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ca5c5a51-7c68-4a98-b93f-b7e91a783500}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3a8d195-0f8e-4bd7-a75e-51f47d14162c}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abec9f04-dc8d-411a-86d3-745b91af2b28}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01295e6d-4c5f-4d03-8870-af208fa05518}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ed8a4e1-109d-474e-bfc4-8424271c1361}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E3:F3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ef2c847-65d8-42b3-bd42-71c07e6489c4}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{756a7986-f9a0-4b8c-8903-85bef5ab0750}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{78410ba4-8d8c-40c9-ba08-b18184f61710}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:A3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eb883bcb-9674-4fb4-9649-6c9830feba5f}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37914085-13fd-4505-a431-dfc291cda46d}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:D2 C3</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
+    <col width="58" customWidth="1" style="1" min="1" max="1"/>
+    <col width="45.8863636363636" customWidth="1" style="1" min="2" max="2"/>
+    <col width="47.6136363636364" customWidth="1" style="1" min="3" max="3"/>
+    <col width="109.954545454545" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.8863636363636" customWidth="1" style="1" min="7" max="7"/>
+    <col width="40.780303030303" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>如何填写提取参数</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>断言的填写方式</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>内置的断言方法</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>sql 的填写方式及如何提取sql结果</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+    <row r="2" ht="346.5" customHeight="1" s="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>92</v>
+    <row r="3" ht="18" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>如何使用已提取的参数：</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>断言也可以使用变量替换</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>也可以像postman一样写前后置脚本代码段</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>sql 语句也可以使用变量替换</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="209" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>95</v>
+    <row r="4" ht="209" customHeight="1" s="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>替换方式依然是 {{}}，{{fun()}}</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}
+该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
+那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
+数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>98</v>
+    <row r="5" ht="66" customHeight="1" s="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>比如:
+SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>101</v>
+    <row r="6" ht="82.5" customHeight="1" s="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>后置脚本代码 与前置脚本的差不多</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
+        </is>
       </c>
     </row>
-    <row r="7" ht="198" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" ht="198" customHeight="1" s="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" priority="7" dxfId="28">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" priority="6" dxfId="27">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="containsBlanks" priority="5" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/cases/test_cases.xlsx
+++ b/src/cases/test_cases.xlsx
@@ -1,200 +1,689 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="29868" windowHeight="14628" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="29868" windowHeight="14628" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="try" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="try" sheetId="1" r:id="rId1"/>
+    <sheet name="bookShop" sheetId="4" r:id="rId2"/>
+    <sheet name="init" sheetId="2" r:id="rId3"/>
+    <sheet name="关联参数填写示例" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="115">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>HeadersCrypto</t>
+  </si>
+  <si>
+    <t>QueryString</t>
+  </si>
+  <si>
+    <t>RequestDataType</t>
+  </si>
+  <si>
+    <t>RequestData</t>
+  </si>
+  <si>
+    <t>SetupScript</t>
+  </si>
+  <si>
+    <t>RequestDataCrypto</t>
+  </si>
+  <si>
+    <t>ExtractRequestData</t>
+  </si>
+  <si>
+    <t>Jsonpath</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>RegexParamsList</t>
+  </si>
+  <si>
+    <t>RetrieveValue</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SqlParamsDict</t>
+  </si>
+  <si>
+    <t>TeardownScript</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>ErrorLog</t>
+  </si>
+  <si>
+    <t>清表</t>
+  </si>
+  <si>
+    <t>初始化查询sql</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{"select":{"select_one": "select username,password as pwd  from lea.user where username ='luoshunwen003';"}}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>正确的随机邮箱注册成功</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/register</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"email": "{{email}}", "password": "{{password}}"}</t>
+  </si>
+  <si>
+    <t># 前置脚本代码
+import json
+def setup(pm):
+    print("pm----------------&gt;", pm.variables)
+    # request_data = pm.variables  # 获取得到请求数据
+    """
+    request_data 的值:  {'Url': '/login',
+     'Headers': '{"Content-Type": "application/json"}',
+      'Query Str': None,
+       'Request Data Type': 'params',
+       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+       }
+    """
+    # request = pm.variables()
+    # email = json.loads(request.get("Request Data")).get("email")
+    # pm.update_environments("email", email)  # 设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{email}}"))
+setup(pm)</t>
+  </si>
+  <si>
+    <t>{"email":"$..email"}</t>
+  </si>
+  <si>
+    <t>{"token": "$.token", "userId": "$.id"}</t>
+  </si>
+  <si>
+    <t>{
+        "select":
+            {
+                "select_one": "select name,age from test.test_ea as e where e.name ='kira';"
+            }
+    }</t>
+  </si>
+  <si>
+    <t>{"e_name":"$..name","e_salary":"$.select.select_one.age","e_age":"$..age"}</t>
+  </si>
+  <si>
+    <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
+  </si>
+  <si>
+    <t>{"id":4,"token":"QpwL5tke4Pnpja7X4"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>注册成功的账号可以登录成功</t>
+  </si>
+  <si>
+    <t>/api/login</t>
+  </si>
+  <si>
+    <t># 后置脚本代码
+def tear_down(pm):
+    # vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
+    response = pm.variables  # 获取得到响应结果对象
+    response.json()
+    print(f"请求地址 --&gt; {response.request.url}")
+    print(f"请求头 --&gt; {response.request.headers}")
+    print(f"请求 body --&gt; {response.request.body}")
+    print(f"接口状态--&gt; {response.status_code}")
+    print(f"接口耗时--&gt; {response.elapsed}")
+    print(f"接口响应--&gt; {response.text}")
+    token = response.json()['token']
+    pm.update_environments("token", token)  # 重新设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+    # print("----&gt;pm.get_variables", pm.get_variables())
+tear_down(pm)</t>
+  </si>
+  <si>
+    <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"},{"check":{{responseTime}},"comparator":"gte","expect":300}]</t>
+  </si>
+  <si>
+    <t>{"token":"QpwL5tke4Pnpja7X4"}</t>
+  </si>
+  <si>
+    <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 463.1, '期望值': 300, '实际值': 463.1, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
+  </si>
+  <si>
+    <t>用户列表</t>
+  </si>
+  <si>
+    <t>查询用户列表</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/users</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
+  </si>
+  <si>
+    <t>md5_sign</t>
+  </si>
+  <si>
+    <t>{"page":1}</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>sha1_sign</t>
+  </si>
+  <si>
+    <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}]</t>
+  </si>
+  <si>
+    <t>{"page":1,"per_page":6,"total":12,"total_pages":2,"data":[{"id":1,"email":"george.bluth@reqres.in","first_name":"George","last_name":"Bluth","avatar":"https://reqres.in/img/faces/1-image.jpg"},{"id":2,"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","avatar":"https://reqres.in/img/faces/2-image.jpg"},{"id":3,"email":"emma.wong@reqres.in","first_name":"Emma","last_name":"Wong","avatar":"https://reqres.in/img/faces/3-image.jpg"},{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},{"id":5,"email":"charles.morris@reqres.in","first_name":"Charles","last_name":"Morris","avatar":"https://reqres.in/img/faces/5-image.jpg"},{"id":6,"email":"tracey.ramos@reqres.in","first_name":"Tracey","last_name":"Ramos","avatar":"https://reqres.in/img/faces/6-image.jpg"}],"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>[{'检查项': '200', '期望值': 200, '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '失败'}]</t>
+  </si>
+  <si>
+    <t>获取指定用户的信息</t>
+  </si>
+  <si>
+    <t>/api/users/{{userId}}</t>
+  </si>
+  <si>
+    <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
+  </si>
+  <si>
+    <t>{"data":{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
+  </si>
+  <si>
+    <t>[{'检查项': '$.data.id', '期望值': 4, '实际值': 4, '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '$.data.email', '期望值': 'eve.holt@reqres.in', '实际值': 'eve.holt@reqres.in', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "BSP_TOKEN": "7c7d70bfb079d72182156d9b80d7911c",
+  "USER_ENV_ID": "1320970534539886592",
+  "USER_ID": "60629040",
+  "USER_TENANT": "1320970534539886592"
+}
+</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>["test.txt"]</t>
+  </si>
+  <si>
+    <t>{"code":503,"data":null,"message":"Failed to handle request [POST https://ibs-gateway.ibs-pre/ibs-file/file-upload/upload-image]: 503 SERVICE_UNAVAILABLE \"Unable to find instance for APP-API\""}</t>
+  </si>
+  <si>
+    <t>未填写断言信息，默认执行断言请求返回的状态码！！！</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Sheets</t>
+  </si>
+  <si>
+    <t>InitializeData</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>https://reqres.in</t>
+  </si>
+  <si>
+    <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "test",
+ "user":"root",
+ "password":""
+}</t>
+  </si>
+  <si>
+    <t>["try"]</t>
+  </si>
+  <si>
+    <t>{
+"{{email}}":"eve.holt@reqres.in",
+     "{{password}}": "pistol"
+}</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>如何填写提取参数</t>
+  </si>
+  <si>
+    <t>断言的填写方式</t>
+  </si>
+  <si>
+    <t>内置的断言方法</t>
+  </si>
+  <si>
+    <t>sql 的填写方式及如何提取sql结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+  </si>
+  <si>
+    <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+  </si>
+  <si>
+    <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+  </si>
+  <si>
+    <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+  </si>
+  <si>
+    <t>如何使用已提取的参数：</t>
+  </si>
+  <si>
+    <t>断言也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>也可以像postman一样写前后置脚本代码段</t>
+  </si>
+  <si>
+    <t>sql 语句也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+  </si>
+  <si>
+    <t>替换方式依然是 {{}}，{{fun()}}</t>
+  </si>
+  <si>
+    <t>SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}
+该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
+那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
+数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
+  </si>
+  <si>
+    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+  </si>
+  <si>
+    <t>比如:
+SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}</t>
+  </si>
+  <si>
+    <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+  </si>
+  <si>
+    <t>后置脚本代码 与前置脚本的差不多</t>
+  </si>
+  <si>
+    <t>sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
+  </si>
+  <si>
+    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1" tint="0.05"/>
-      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="major"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -539,203 +1028,203 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="21" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,7 +1282,7 @@
     <cellStyle name="注释 2" xfId="50"/>
     <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="102">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -913,6 +1402,84 @@
           <bgColor theme="4" tint="0.4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <fill>
@@ -942,14 +1509,15 @@
     <dxf>
       <font>
         <name val="宋体"/>
+        <scheme val="none"/>
+        <sz val="11"/>
         <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -969,8 +1537,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -990,8 +1558,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1021,8 +1589,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1052,8 +1620,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1063,8 +1631,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1088,8 +1656,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1112,7 +1680,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1140,7 +1708,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1166,7 +1734,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1192,7 +1760,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="180">
+        <gradientFill degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1215,8 +1783,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
     </dxf>
     <dxf>
@@ -1359,8 +1927,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1390,8 +1958,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1421,8 +1989,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1522,7 +2090,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1534,8 +2102,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFF8F8F8"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1565,8 +2133,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1596,11 +2164,11 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="270">
+        <gradientFill degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -1621,203 +2189,140 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="35"/>
+    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{F6075CB7-1A21-45C1-BAFE-D43CDD928304}">
+      <tableStyleElement type="secondColumnStripe" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
+    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{DC3EE1CF-0ADE-43A9-B0EC-D7ACB08B8673}">
+      <tableStyleElement type="secondColumnStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="37"/>
-    </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="38"/>
-    </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
-    </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1">
-      <tableStyleElement type="firstHeaderCell" dxfId="40"/>
-    </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1">
-      <tableStyleElement type="firstColumn" dxfId="41"/>
-    </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="42"/>
-    </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="43"/>
-    </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-    </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="45"/>
-    </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="46"/>
-    </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="47"/>
-    </tableStyle>
-    <tableStyle name="深浅交替4" count="1">
-      <tableStyleElement type="firstHeaderCell" dxfId="48"/>
-    </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="49"/>
-    </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="50"/>
-    </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="51"/>
-    </tableStyle>
-    <tableStyle name="商务深色系列12" count="1">
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-    </tableStyle>
-    <tableStyle name="商务深色系列1" count="1">
-      <tableStyleElement type="headerRow" dxfId="53"/>
-    </tableStyle>
-    <tableStyle name="商务首列填充05" count="1">
-      <tableStyleElement type="firstColumn" dxfId="54"/>
-    </tableStyle>
-    <tableStyle name="商务首列填充04" count="1">
-      <tableStyleElement type="firstColumn" dxfId="55"/>
-    </tableStyle>
-    <tableStyle name="商务首列填充03" count="1">
-      <tableStyleElement type="firstColumn" dxfId="56"/>
-    </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="57"/>
-    </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1">
-      <tableStyleElement type="firstColumn" dxfId="58"/>
-    </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1">
-      <tableStyleElement type="firstColumn" dxfId="59"/>
-    </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1">
-      <tableStyleElement type="firstColumn" dxfId="60"/>
-    </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1">
-      <tableStyleElement type="firstColumn" dxfId="61"/>
-    </tableStyle>
-    <tableStyle name="首列填充系列2" count="1">
-      <tableStyleElement type="firstColumn" dxfId="62"/>
-    </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1">
+    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{0A4E1C43-3C78-4761-9621-51805B4577B7}">
       <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="64"/>
+    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{6EF468C5-7812-41EB-A144-8575A3E73580}">
+      <tableStyleElement type="totalRow" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="65"/>
+    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{51D8BBB0-3B5B-4B0D-B3A3-C9ADB8B39841}">
+      <tableStyleElement type="secondColumnStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="66"/>
+    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{445A6DDB-AA7B-47F7-B672-9EA0765B45C1}">
+      <tableStyleElement type="firstHeaderCell" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="67"/>
+    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{8551C480-99B6-4817-8FC4-4197DEB2D419}">
+      <tableStyleElement type="firstColumn" dxfId="67"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="68"/>
+    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{9245BEB6-32EF-408A-8666-D3B5D289AE52}">
+      <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="69"/>
+    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{BCF9E4F7-A8D1-474C-AA7F-C8D58305BE4A}">
+      <tableStyleElement type="secondColumnStripe" dxfId="69"/>
     </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="70"/>
+    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{9FDF29F5-2B76-4C7C-8B41-C223ADE73D41}">
+      <tableStyleElement type="wholeTable" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="71"/>
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{82629EA5-B568-48AB-8EF1-39EECB2595CB}">
+      <tableStyleElement type="totalRow" dxfId="71"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="72"/>
+    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{167443F0-BD40-4456-968C-03DA48D48321}">
+      <tableStyleElement type="totalRow" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="73"/>
+    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{4CF5064C-B3DE-45D0-93C6-32C675EFB2BF}">
+      <tableStyleElement type="totalRow" dxfId="73"/>
     </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="74"/>
+    <tableStyle name="深浅交替4" count="1" xr9:uid="{B443DD05-BCC1-47A5-93C8-A2315E47CCA1}">
+      <tableStyleElement type="firstHeaderCell" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1">
-      <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
+    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{6EAD6941-E7D7-4531-B763-1E09CC57F8B9}">
+      <tableStyleElement type="totalRow" dxfId="75"/>
+    </tableStyle>
+    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{7E1CED9A-CAE4-4FE0-B7B8-FCB81FFA04DD}">
+      <tableStyleElement type="totalRow" dxfId="76"/>
+    </tableStyle>
+    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{C9538387-6D3D-4167-9657-1D3AAE326E8B}">
+      <tableStyleElement type="totalRow" dxfId="77"/>
+    </tableStyle>
+    <tableStyle name="商务深色系列12" count="1" xr9:uid="{9137AA45-A72B-4E9C-8DEE-BF15B6DEAF20}">
+      <tableStyleElement type="firstRowStripe" dxfId="78"/>
+    </tableStyle>
+    <tableStyle name="商务深色系列1" count="1" xr9:uid="{8E97569A-8BDF-4EDF-9330-378E07ADAB43}">
+      <tableStyleElement type="headerRow" dxfId="79"/>
+    </tableStyle>
+    <tableStyle name="商务首列填充05" count="1" xr9:uid="{901E1C21-DE33-4708-B239-95CED394AA3D}">
+      <tableStyleElement type="firstColumn" dxfId="80"/>
+    </tableStyle>
+    <tableStyle name="商务首列填充04" count="1" xr9:uid="{E7C73E6F-A260-45EC-BB4E-C775FD22F2A8}">
+      <tableStyleElement type="firstColumn" dxfId="81"/>
+    </tableStyle>
+    <tableStyle name="商务首列填充03" count="1" xr9:uid="{FA19E81C-6C10-4B3E-9472-3932DC86D330}">
+      <tableStyleElement type="firstColumn" dxfId="82"/>
+    </tableStyle>
+    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{70778008-8C0F-4C8A-B95F-035617BC63B5}">
+      <tableStyleElement type="secondRowStripe" dxfId="83"/>
+    </tableStyle>
+    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{8BD3096A-F631-499D-8196-71224A38BE20}">
+      <tableStyleElement type="firstColumn" dxfId="84"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{5819F668-DDCF-4795-9BF4-8F0DA8B9ABF9}">
+      <tableStyleElement type="firstColumn" dxfId="85"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{09B6AFD3-FE20-4C76-9B61-F3655ECC1A12}">
+      <tableStyleElement type="firstColumn" dxfId="86"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{D0EB5956-EB37-4173-AE60-E8D0CFFE2533}">
+      <tableStyleElement type="firstColumn" dxfId="87"/>
+    </tableStyle>
+    <tableStyle name="首列填充系列2" count="1" xr9:uid="{B1A042DB-3CC9-4CEF-9B8D-46216A58634F}">
+      <tableStyleElement type="firstColumn" dxfId="88"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{5221B8B8-B780-4370-A15A-BA4CD693762A}">
+      <tableStyleElement type="secondColumnStripe" dxfId="89"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{6481B283-9A5C-45DD-8945-155EED3A07E5}">
+      <tableStyleElement type="firstColumnStripe" dxfId="90"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{82D27D2E-520B-4299-889B-4D665338C81A}">
+      <tableStyleElement type="firstColumnStripe" dxfId="91"/>
+    </tableStyle>
+    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{931B5E60-C22D-4D7F-B492-ECB6BAC3A71B}">
+      <tableStyleElement type="secondColumnStripe" dxfId="92"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{E32F6863-B652-46ED-8151-DAE5E23FEEDB}">
+      <tableStyleElement type="secondColumnStripe" dxfId="93"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{19AB9E38-D8C3-45C8-8BF7-30B2CF07F0DD}">
+      <tableStyleElement type="secondColumnStripe" dxfId="94"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{F1D4E604-B8AF-47D6-958D-BEF10B266D7D}">
+      <tableStyleElement type="firstColumnStripe" dxfId="95"/>
+    </tableStyle>
+    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{E688BBC7-18E8-402E-90C8-E83242082220}">
+      <tableStyleElement type="secondRowStripe" dxfId="96"/>
+    </tableStyle>
+    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{9E58F025-B7D7-4E98-9203-B272DBB29329}">
+      <tableStyleElement type="secondRowStripe" dxfId="97"/>
+    </tableStyle>
+    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{C2BE1736-8318-49F6-9A38-BE913D1C98AE}">
+      <tableStyleElement type="secondColumnStripe" dxfId="98"/>
+    </tableStyle>
+    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{25155D78-70F3-4ECA-B591-2048641B3179}">
+      <tableStyleElement type="secondColumnStripe" dxfId="99"/>
+    </tableStyle>
+    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{6AAD02D3-179C-400B-9A12-6B123322F327}">
+      <tableStyleElement type="secondColumnStripe" dxfId="100"/>
+    </tableStyle>
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{5665FC39-A0D4-465F-8963-32BE71C18071}">
+      <tableStyleElement type="firstColumnStripe" size="2" dxfId="101"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z13" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z13">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -1845,6 +2350,40 @@
     <tableColumn id="19" name="Response" dataDxfId="23"/>
     <tableColumn id="20" name="Assertion" totalsRowFunction="count" dataDxfId="24"/>
     <tableColumn id="21" name="ErrorLog" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_343" displayName="表1_343" ref="A1:Z13">
+  <tableColumns count="26">
+    <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="32"/>
+    <tableColumn id="2" name="Name" dataDxfId="33"/>
+    <tableColumn id="3" name="Description" dataDxfId="34"/>
+    <tableColumn id="4" name="Run" dataDxfId="35"/>
+    <tableColumn id="5" name="Time" dataDxfId="36"/>
+    <tableColumn id="6" name="Method" dataDxfId="37"/>
+    <tableColumn id="7" name="Url" dataDxfId="38"/>
+    <tableColumn id="8" name="Headers" dataDxfId="39"/>
+    <tableColumn id="9" name="HeadersCrypto" dataDxfId="40"/>
+    <tableColumn id="10" name="QueryString" dataDxfId="41"/>
+    <tableColumn id="11" name="RequestDataType" dataDxfId="42"/>
+    <tableColumn id="12" name="RequestData" dataDxfId="43"/>
+    <tableColumn id="13" name="SetupScript" dataDxfId="44"/>
+    <tableColumn id="14" name="RequestDataCrypto" dataDxfId="45"/>
+    <tableColumn id="15" name="ExtractRequestData" dataDxfId="46"/>
+    <tableColumn id="16" name="Jsonpath" dataDxfId="47"/>
+    <tableColumn id="17" name="Regex" dataDxfId="48"/>
+    <tableColumn id="18" name="RegexParamsList" dataDxfId="49"/>
+    <tableColumn id="19" name="RetrieveValue" dataDxfId="50"/>
+    <tableColumn id="20" name="SQL" dataDxfId="51"/>
+    <tableColumn id="21" name="SqlParamsDict" dataDxfId="52"/>
+    <tableColumn id="22" name="TeardownScript" dataDxfId="53"/>
+    <tableColumn id="23" name="Expected" dataDxfId="54"/>
+    <tableColumn id="24" name="Response" dataDxfId="55"/>
+    <tableColumn id="25" name="Assertion" totalsRowFunction="count" dataDxfId="56"/>
+    <tableColumn id="26" name="ErrorLog" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2115,973 +2654,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1"/>
   <cols>
-    <col width="2.45454545454545" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.4545454545455" customWidth="1" style="3" min="2" max="2"/>
-    <col width="15.8181818181818" customWidth="1" style="3" min="3" max="3"/>
-    <col width="4.27272727272727" customWidth="1" style="3" min="4" max="4"/>
-    <col width="5.27272727272727" customWidth="1" style="3" min="5" max="5"/>
-    <col width="7.90909090909091" customWidth="1" style="3" min="6" max="6"/>
-    <col width="16.6590909090909" customWidth="1" style="10" min="7" max="7"/>
-    <col width="20.1818181818182" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.1212121212121" customWidth="1" style="3" min="9" max="9"/>
-    <col width="22.3787878787879" customWidth="1" style="3" min="10" max="10"/>
-    <col width="17.6136363636364" customWidth="1" style="10" min="11" max="11"/>
-    <col width="16.9848484848485" customWidth="1" style="3" min="12" max="12"/>
-    <col width="15.2348484848485" customWidth="1" style="3" min="13" max="13"/>
-    <col width="19.5454545454545" customWidth="1" style="3" min="14" max="14"/>
-    <col width="19.8181818181818" customWidth="1" style="3" min="15" max="15"/>
-    <col width="10.1515151515152" customWidth="1" style="3" min="16" max="16"/>
-    <col width="6.36363636363636" customWidth="1" style="3" min="17" max="17"/>
-    <col width="13.7272727272727" customWidth="1" style="3" min="18" max="18"/>
-    <col width="12.530303030303" customWidth="1" style="3" min="19" max="19"/>
-    <col width="13.3257575757576" customWidth="1" style="3" min="20" max="20"/>
-    <col width="16.5075757575758" customWidth="1" style="3" min="21" max="21"/>
-    <col width="9.81818181818182" customWidth="1" style="3" min="22" max="22"/>
-    <col width="8.90909090909091" customWidth="1" style="3" min="23" max="23"/>
-    <col width="9.45454545454546" customWidth="1" style="3" min="24" max="24"/>
-    <col width="9.27272727272727" customWidth="1" style="3" min="25" max="25"/>
-    <col width="8.90909090909091" customWidth="1" style="3" min="26" max="26"/>
-    <col width="25.780303030303" customWidth="1" style="3" min="27" max="16384"/>
+    <col min="1" max="1" width="2.45454545454545" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.4545454545455" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8181818181818" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.27272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.27272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.90909090909091" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.6590909090909" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.1818181818182" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.1212121212121" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.3787878787879" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.6136363636364" style="10" customWidth="1"/>
+    <col min="12" max="12" width="16.9848484848485" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.2348484848485" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.5454545454545" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.8181818181818" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.1515151515152" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.36363636363636" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7272727272727" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.530303030303" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.3257575757576" style="3" customWidth="1"/>
+    <col min="21" max="21" width="16.5075757575758" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.81818181818182" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.90909090909091" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.45454545454546" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.27272727272727" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.90909090909091" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="8">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Headers</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>HeadersCrypto</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>QueryString</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>RequestDataType</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>RequestData</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>SetupScript</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>RequestDataCrypto</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>ExtractRequestData</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Jsonpath</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Regex</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>RegexParamsList</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>RetrieveValue</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>SqlParamsDict</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>TeardownScript</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>Assertion</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>ErrorLog</t>
-        </is>
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>清表</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>初始化查询sql</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="n"/>
-      <c r="J2" s="10" t="n"/>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="T2" s="12" t="inlineStr">
-        <is>
-          <t>{"select":{"select_one": "select username,password as pwd  from lea.user where username ='luoshunwen003';"}}</t>
-        </is>
-      </c>
-      <c r="U2" s="13" t="n"/>
-      <c r="V2" s="13" t="inlineStr"/>
-      <c r="W2" s="13" t="inlineStr"/>
-      <c r="X2" s="13" t="inlineStr"/>
-      <c r="Y2" s="13" t="inlineStr"/>
-      <c r="Z2" s="13" t="inlineStr"/>
-      <c r="AA2" s="5" t="n"/>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="5"/>
     </row>
-    <row r="3" customFormat="1" s="9">
-      <c r="A3" s="3" t="n">
+    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>注册</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>正确的随机邮箱注册成功</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.5</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>/api/register</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/json"}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>{"email": "{{email}}", "password": "{{password}}"}</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t># 前置脚本代码
-import json
-def setup(pm):
-    print("pm----------------&gt;", pm.variables)
-    # request_data = pm.variables  # 获取得到请求数据
-    """
-    request_data 的值:  {'Url': '/login',
-     'Headers': '{"Content-Type": "application/json"}',
-      'Query Str': None,
-       'Request Data Type': 'params',
-       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
-       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
-       }
-    """
-    # request = pm.variables()
-    # email = json.loads(request.get("Request Data")).get("email")
-    # pm.update_environments("email", email)  # 设置环境变量
-    # print("----&gt;pm.get_environments", pm.get_environments("{{email}}"))
-setup(pm)</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>{"email":"$..email"}</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>{"token": "$.token", "userId": "$.id"}</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>{
-        "select":
-            {
-                "select_one": "select name,age from test.test_ea as e where e.name ='kira';"
-            }
-    }</t>
-        </is>
-      </c>
-      <c r="U3" s="3" t="inlineStr">
-        <is>
-          <t>{"e_name":"$..name","e_salary":"$.select.select_one.age","e_age":"$..age"}</t>
-        </is>
-      </c>
-      <c r="V3" s="3" t="inlineStr"/>
-      <c r="W3" s="13" t="inlineStr">
-        <is>
-          <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
-        </is>
-      </c>
-      <c r="X3" s="13" t="inlineStr">
-        <is>
-          <t>{"id":4,"token":"QpwL5tke4Pnpja7X4"}</t>
-        </is>
-      </c>
-      <c r="Y3" s="13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z3" s="13" t="inlineStr">
-        <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
-        </is>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" s="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" customHeight="1" spans="1:27">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>登录</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>注册成功的账号可以登录成功</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
+      <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.5</v>
       </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>/api/login</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/json"}</t>
-        </is>
-      </c>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>{"email": "{{email}}", "password": "{{password}}"}</t>
-        </is>
-      </c>
-      <c r="M4" s="10" t="n"/>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="T4" s="10" t="inlineStr"/>
-      <c r="U4" s="10" t="inlineStr"/>
-      <c r="V4" s="3" t="inlineStr">
-        <is>
-          <t># 后置脚本代码
-def tear_down(pm):
-    # vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
-    response = pm.variables  # 获取得到响应结果对象
-    response.json()
-    print(f"请求地址 --&gt; {response.request.url}")
-    print(f"请求头 --&gt; {response.request.headers}")
-    print(f"请求 body --&gt; {response.request.body}")
-    print(f"接口状态--&gt; {response.status_code}")
-    print(f"接口耗时--&gt; {response.elapsed}")
-    print(f"接口响应--&gt; {response.text}")
-    token = response.json()['token']
-    pm.update_environments("token", token)  # 重新设置环境变量
-    # print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
-    # print("----&gt;pm.get_variables", pm.get_variables())
-tear_down(pm)</t>
-        </is>
-      </c>
-      <c r="W4" s="13" t="inlineStr">
-        <is>
-          <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"},{"check":{{responseTime}},"comparator":"gte","expect":300}]</t>
-        </is>
-      </c>
-      <c r="X4" s="10" t="inlineStr">
-        <is>
-          <t>{"token":"QpwL5tke4Pnpja7X4"}</t>
-        </is>
-      </c>
-      <c r="Y4" s="10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z4" s="13" t="inlineStr">
-        <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 463.1, '期望值': 300, '实际值': 463.1, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
-        </is>
-      </c>
-      <c r="AA4" s="5" t="n"/>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="5"/>
     </row>
-    <row r="5" s="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" customHeight="1" spans="1:27">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>用户列表</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>查询用户列表</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>/api/users</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>md5_sign</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="inlineStr">
-        <is>
-          <t>{"page":1}</t>
-        </is>
-      </c>
-      <c r="K5" s="10" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>sha1_sign</t>
-        </is>
-      </c>
-      <c r="T5" s="13" t="inlineStr"/>
-      <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="0" t="inlineStr"/>
-      <c r="W5" s="13" t="inlineStr">
-        <is>
-          <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}]</t>
-        </is>
-      </c>
-      <c r="X5" s="13" t="inlineStr">
-        <is>
-          <t>{"page":1,"per_page":6,"total":12,"total_pages":2,"data":[{"id":1,"email":"george.bluth@reqres.in","first_name":"George","last_name":"Bluth","avatar":"https://reqres.in/img/faces/1-image.jpg"},{"id":2,"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","avatar":"https://reqres.in/img/faces/2-image.jpg"},{"id":3,"email":"emma.wong@reqres.in","first_name":"Emma","last_name":"Wong","avatar":"https://reqres.in/img/faces/3-image.jpg"},{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},{"id":5,"email":"charles.morris@reqres.in","first_name":"Charles","last_name":"Morris","avatar":"https://reqres.in/img/faces/5-image.jpg"},{"id":6,"email":"tracey.ramos@reqres.in","first_name":"Tracey","last_name":"Ramos","avatar":"https://reqres.in/img/faces/6-image.jpg"}],"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
-        </is>
-      </c>
-      <c r="Y5" s="13" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z5" s="13" t="inlineStr">
-        <is>
-          <t>[{'检查项': '200', '期望值': 200, '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '失败'}]</t>
-        </is>
-      </c>
-      <c r="AA5" s="5" t="n"/>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" s="5"/>
     </row>
-    <row r="6" s="1">
-      <c r="A6" s="3" t="n">
+    <row r="6" customHeight="1" spans="1:27">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>用户列表</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>获取指定用户的信息</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>/api/users/{{userId}}</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
-        </is>
-      </c>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="T6" s="13" t="inlineStr"/>
-      <c r="U6" s="3" t="inlineStr"/>
-      <c r="V6" s="0" t="inlineStr"/>
-      <c r="W6" s="13" t="inlineStr">
-        <is>
-          <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
-        </is>
-      </c>
-      <c r="X6" s="13" t="inlineStr">
-        <is>
-          <t>{"data":{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
-        </is>
-      </c>
-      <c r="Y6" s="13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z6" s="13" t="inlineStr">
-        <is>
-          <t>[{'检查项': '$.data.id', '期望值': 4, '实际值': 4, '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '$.data.email', '期望值': 'eve.holt@reqres.in', '实际值': 'eve.holt@reqres.in', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
-        </is>
-      </c>
-      <c r="AA6" s="5" t="n"/>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="5"/>
     </row>
-    <row r="7" s="1">
-      <c r="A7" s="3" t="n">
+    <row r="7" customHeight="1" spans="1:27">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>TIME</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="n">
+      <c r="F7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="T7" s="13" t="inlineStr"/>
-      <c r="U7" s="13" t="inlineStr"/>
-      <c r="V7" s="13" t="inlineStr"/>
-      <c r="W7" s="13" t="inlineStr"/>
-      <c r="X7" s="13" t="inlineStr"/>
-      <c r="Y7" s="13" t="inlineStr"/>
-      <c r="Z7" s="13" t="inlineStr"/>
-      <c r="AA7" s="5" t="n"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="3"/>
+      <c r="T7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="5"/>
     </row>
-    <row r="8" s="1">
-      <c r="A8" s="3" t="n">
+    <row r="8" customHeight="1" spans="1:26">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>文件上传</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>文件上传</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G8" s="10" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{
-  "BSP_TOKEN": "7c7d70bfb079d72182156d9b80d7911c",
-  "USER_ENV_ID": "1320970534539886592",
-  "USER_ID": "60629040",
-  "USER_TENANT": "1320970534539886592"
-}
-</t>
-        </is>
-      </c>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>["test.txt"]</t>
-        </is>
-      </c>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>{"code":503,"data":null,"message":"Failed to handle request [POST https://ibs-gateway.ibs-pre/ibs-file/file-upload/upload-image]: 503 SERVICE_UNAVAILABLE \"Unable to find instance for APP-API\""}</t>
-        </is>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z8" s="0" t="inlineStr">
-        <is>
-          <t>未填写断言信息，默认执行断言请求返回的状态码！！！</t>
-        </is>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="9" s="1">
-      <c r="J9" s="10" t="n"/>
-      <c r="X9" s="0" t="inlineStr"/>
-      <c r="Y9" s="0" t="inlineStr"/>
-      <c r="Z9" s="0" t="inlineStr"/>
+    <row r="9" customHeight="1" spans="10:26">
+      <c r="J9" s="10"/>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" s="1">
-      <c r="J10" s="10" t="n"/>
-      <c r="X10" s="0" t="inlineStr"/>
-      <c r="Y10" s="0" t="inlineStr"/>
-      <c r="Z10" s="0" t="inlineStr"/>
+    <row r="10" customHeight="1" spans="10:26">
+      <c r="J10" s="10"/>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" s="1">
-      <c r="J11" s="10" t="n"/>
-      <c r="X11" s="0" t="inlineStr"/>
-      <c r="Y11" s="0" t="inlineStr"/>
-      <c r="Z11" s="0" t="inlineStr"/>
+    <row r="11" customHeight="1" spans="10:26">
+      <c r="J11" s="10"/>
+      <c r="X11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" s="1">
-      <c r="J12" s="10" t="n"/>
-      <c r="X12" s="0" t="inlineStr"/>
-      <c r="Y12" s="0" t="inlineStr"/>
-      <c r="Z12" s="0" t="inlineStr"/>
+    <row r="12" customHeight="1" spans="10:26">
+      <c r="J12" s="10"/>
+      <c r="X12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" s="1">
-      <c r="J13" s="10" t="n"/>
-      <c r="X13" s="0" t="inlineStr"/>
-      <c r="Y13" s="0" t="inlineStr"/>
-      <c r="Z13" s="0" t="inlineStr"/>
+    <row r="13" customHeight="1" spans="10:26">
+      <c r="J13" s="10"/>
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" priority="2" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="2">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" priority="7" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="7">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13">
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" priority="31" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 A9:Z1048576 E8:F8 H8:J8 L8:Z8 Z2:Z7">
-    <cfRule type="containsBlanks" priority="27" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="27">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="29" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="30" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y13">
-    <cfRule type="containsBlanks" priority="15" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="15">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="17">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E1048576 E8">
-    <cfRule type="cellIs" priority="26" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9:D13 E1 E2 E3 E4 E5 E6 E7 E8:E13 E14:E1048576 I1 J1 J14:J1048576 K1 K9:K1048576 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
-    <dataValidation sqref="F2 F3 F4 F5 F6 F7 F8:F13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 D8 D9:D13 E8:E13 E14:E1048576 J14:J1048576 K9:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8:F13">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation sqref="I2 I3:I4 I5 I6:I7 I8:I13 L7 M7 N2:N13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 I5 L7 M7 I3:I4 I6:I7 I8:I13 N2:N13">
       <formula1>"md5_sign,sha1_sign,rsa_sign"</formula1>
     </dataValidation>
-    <dataValidation sqref="K2 K3:K4 K5 K6 K8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K5 K6 K8 K3:K4">
       <formula1>"json,data,params,files"</formula1>
     </dataValidation>
-    <dataValidation sqref="I14:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I14:I1048576">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
-    <dataValidation sqref="N14:N1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N14:N1048576">
       <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G8" tooltip="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" display="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" tooltip="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.45454545454545" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.4545454545455" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8181818181818" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.27272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.27272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.90909090909091" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.6590909090909" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.1818181818182" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.1212121212121" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.3787878787879" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.6136363636364" style="10" customWidth="1"/>
+    <col min="12" max="12" width="16.9848484848485" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.2348484848485" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.5454545454545" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.8181818181818" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.1515151515152" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.36363636363636" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7272727272727" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.530303030303" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.3257575757576" style="3" customWidth="1"/>
+    <col min="21" max="21" width="16.5075757575758" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.81818181818182" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.90909090909091" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.45454545454546" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.27272727272727" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.90909090909091" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="5"/>
+    </row>
+    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:27">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:27">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:27">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:27">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="10">
+        <v>100</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="3"/>
+      <c r="T7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:26">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="10:26">
+      <c r="J9" s="10"/>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="10:26">
+      <c r="J10" s="10"/>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="10:26">
+      <c r="J11" s="10"/>
+      <c r="X11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="10:26">
+      <c r="J12" s="10"/>
+      <c r="X12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="10:26">
+      <c r="J13" s="10"/>
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+      <formula>"不通过"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="4">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="3">
+      <formula>IF(FIND("SQL",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="2">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:Z1">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+      <formula>"不通过"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="9">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="8">
+      <formula>IF(FIND("SQL",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="7">
+      <formula>LEN(TRIM(B1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E1">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+      <formula>"通过"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:E6">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X13">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+      <formula>"通过"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8:Y1048576">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"通过"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 A9:Z1048576 E8:F8 H8:J8 L8:Z8 Z2:Z7">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+      <formula>"不通过"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23">
+      <formula>IF(FIND("TIME",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>IF(FIND("SQL",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="21">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:Y13">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+      <formula>"不通过"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="17">
+      <formula>IF(FIND("TIME",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="16">
+      <formula>IF(FIND("SQL",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="15">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:E5">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E1048576 E8">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 D8 D9:D13 E8:E13 E14:E1048576 J14:J1048576 K9:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8:F13">
+      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 I5 L7 M7 I3:I4 I6:I7 I8:I13 N2:N13">
+      <formula1>"md5_sign,sha1_sign,rsa_sign"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K5 K6 K8 K3:K4">
+      <formula1>"json,data,params,files"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I14:I1048576">
+      <formula1>"md5,sha1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N14:N1048576">
+      <formula1>"md5,sha1,sha256"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId2" display="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image" tooltip="https://bimdc.bzlrobot.com/bsp/pre/user/ugs/ibs/api/ibs-file/file-upload/upload-image"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col width="2.5530303030303" customWidth="1" style="6" min="1" max="1"/>
-    <col width="29.1136363636364" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.5530303030303" customWidth="1" style="6" min="3" max="3"/>
-    <col width="24.5530303030303" customWidth="1" style="6" min="4" max="4"/>
-    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
-    <col width="20.1136363636364" customWidth="1" style="6" min="6" max="6"/>
-    <col width="52.8863636363636" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.1136363636364" customWidth="1" style="6" min="8" max="8"/>
-    <col width="7.36363636363636" customWidth="1" style="6" min="9" max="16384"/>
+    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Host</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Path</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Databases</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Sheets</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>InitializeData</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" s="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="215.25" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>https://reqres.in</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "test",
- "user":"root",
- "password":""
-}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>["try"]</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-"{{email}}":"eve.holt@reqres.in",
-     "{{password}}": "pistol"
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" s="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="47" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" priority="133" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="58" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -3090,16 +4080,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="135" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b7443a16-1628-4889-8185-da984473e765}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="136" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" priority="73" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="58" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -3108,16 +4103,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="75" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a24a6278-2674-47cc-ad89-529bc6f296d1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="76" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" priority="85" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="58" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -3126,16 +4126,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="87" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{077ee10f-9cc1-4545-a294-cb90d33fd632}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" priority="69" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="58" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3144,19 +4149,24 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="71" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{512a816a-2b34-4b57-af4b-432cd6d19a1d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="72" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="60" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="59" dxfId="33">
+    <cfRule type="expression" dxfId="59" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3165,16 +4175,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="57" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{793d6ce6-b85b-4d2d-bff3-11f887368db7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="58" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" priority="68" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="67" dxfId="33">
+    <cfRule type="expression" dxfId="59" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3183,16 +4198,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="65" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e34e0e78-f376-450f-97d5-d91107423b5f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="58" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" priority="64" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="63" dxfId="33">
+    <cfRule type="expression" dxfId="59" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3201,13 +4221,18 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="61" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ab18ae13-c0ba-47f5-a4ca-82407d7c625b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="58" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" priority="1" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="58" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3216,11 +4241,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="3" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{580d21ab-c2dc-4fc2-8572-16ec97a61df4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3231,10 +4261,15 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7102b105-672a-45b1-a9cf-71fe6d87302f}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" priority="142" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="58" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3243,16 +4278,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="144" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cd87193e-51b8-439a-861b-67a1b9c66460}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="145" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" priority="77" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="58" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3261,311 +4301,285 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="79" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9632bcf9-6de1-47b2-827d-86d01ef6736b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="80" dxfId="34">
+    <cfRule type="expression" dxfId="60" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" tooltip="https://reqres.in" display="https://reqres.in" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://reqres.in" tooltip="https://reqres.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b7443a16-1628-4889-8185-da984473e765}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a24a6278-2674-47cc-ad89-529bc6f296d1}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{077ee10f-9cc1-4545-a294-cb90d33fd632}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{512a816a-2b34-4b57-af4b-432cd6d19a1d}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{793d6ce6-b85b-4d2d-bff3-11f887368db7}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e34e0e78-f376-450f-97d5-d91107423b5f}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:F3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ab18ae13-c0ba-47f5-a4ca-82407d7c625b}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{580d21ab-c2dc-4fc2-8572-16ec97a61df4}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7102b105-672a-45b1-a9cf-71fe6d87302f}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{cd87193e-51b8-439a-861b-67a1b9c66460}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9632bcf9-6de1-47b2-827d-86d01ef6736b}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:D2 C3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col width="58" customWidth="1" style="1" min="1" max="1"/>
-    <col width="45.8863636363636" customWidth="1" style="1" min="2" max="2"/>
-    <col width="47.6136363636364" customWidth="1" style="1" min="3" max="3"/>
-    <col width="109.954545454545" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.8863636363636" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.780303030303" customWidth="1" style="1" min="8" max="8"/>
+    <col min="1" max="1" width="58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>如何填写提取参数</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>断言的填写方式</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>内置的断言方法</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>sql 的填写方式及如何提取sql结果</t>
-        </is>
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" s="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="6" t="n"/>
+    <row r="2" ht="346.5" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="18" customHeight="1" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>如何使用已提取的参数：</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>断言也可以使用变量替换</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>也可以像postman一样写前后置脚本代码段</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>sql 语句也可以使用变量替换</t>
-        </is>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="4" ht="209" customHeight="1" s="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>替换方式依然是 {{}}，{{fun()}}</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}
-该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
-那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
-数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
-        </is>
+    <row r="4" ht="209" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" s="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>比如:
-SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}</t>
-        </is>
+    <row r="5" ht="66" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>后置脚本代码 与前置脚本的差不多</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
-        </is>
+    <row r="6" ht="82.5" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="7" ht="198" customHeight="1" s="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+    <row r="7" ht="198" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="5" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/cases/test_cases.xlsx
+++ b/src/cases/test_cases.xlsx
@@ -2189,127 +2189,127 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{F6075CB7-1A21-45C1-BAFE-D43CDD928304}">
+    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{0DC775E4-2B16-45F9-AC8F-8784C2212F6F}">
       <tableStyleElement type="secondColumnStripe" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{DC3EE1CF-0ADE-43A9-B0EC-D7ACB08B8673}">
+    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{D03F5EDC-24B3-4233-9582-5FC6D98D483C}">
       <tableStyleElement type="secondColumnStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{0A4E1C43-3C78-4761-9621-51805B4577B7}">
+    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{95EB5CCA-410E-4E99-82F7-920CDE0E29BA}">
       <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{6EF468C5-7812-41EB-A144-8575A3E73580}">
+    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{D0EDBE87-F7B7-45D8-BD22-6469BCE6C97C}">
       <tableStyleElement type="totalRow" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{51D8BBB0-3B5B-4B0D-B3A3-C9ADB8B39841}">
+    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{8D61BC2C-28E7-4BDF-9E88-56788E71A89E}">
       <tableStyleElement type="secondColumnStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{445A6DDB-AA7B-47F7-B672-9EA0765B45C1}">
+    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{057D18FF-7DA8-49F6-8133-CFF830C4C982}">
       <tableStyleElement type="firstHeaderCell" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{8551C480-99B6-4817-8FC4-4197DEB2D419}">
+    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{8BB1F4BC-3A1C-4694-B140-6CEB5FFD9E5E}">
       <tableStyleElement type="firstColumn" dxfId="67"/>
     </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{9245BEB6-32EF-408A-8666-D3B5D289AE52}">
+    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{35A30F20-1B54-4E30-A5C7-28AA94D8BD56}">
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{BCF9E4F7-A8D1-474C-AA7F-C8D58305BE4A}">
+    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{D0F22E91-4118-474C-A6F9-E7B29AD63E8C}">
       <tableStyleElement type="secondColumnStripe" dxfId="69"/>
     </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{9FDF29F5-2B76-4C7C-8B41-C223ADE73D41}">
+    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{B3CB97E2-937B-4CBF-AB29-55C3344BBC22}">
       <tableStyleElement type="wholeTable" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{82629EA5-B568-48AB-8EF1-39EECB2595CB}">
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{F6D1A943-3DC2-4867-9810-F2EDF2455E13}">
       <tableStyleElement type="totalRow" dxfId="71"/>
     </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{167443F0-BD40-4456-968C-03DA48D48321}">
+    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{EEEA43CC-41DF-4E43-A087-D5395CD89B08}">
       <tableStyleElement type="totalRow" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{4CF5064C-B3DE-45D0-93C6-32C675EFB2BF}">
+    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{70DC20F4-D18A-4A1D-BAB4-1E5D543BC0E7}">
       <tableStyleElement type="totalRow" dxfId="73"/>
     </tableStyle>
-    <tableStyle name="深浅交替4" count="1" xr9:uid="{B443DD05-BCC1-47A5-93C8-A2315E47CCA1}">
+    <tableStyle name="深浅交替4" count="1" xr9:uid="{CCEFF846-7883-484C-ABE4-3CF1374CAAB6}">
       <tableStyleElement type="firstHeaderCell" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{6EAD6941-E7D7-4531-B763-1E09CC57F8B9}">
+    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{042C3840-CFDD-442C-B197-F3BD9225674A}">
       <tableStyleElement type="totalRow" dxfId="75"/>
     </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{7E1CED9A-CAE4-4FE0-B7B8-FCB81FFA04DD}">
+    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{BA1130A5-05E9-42E7-A77B-6CB66CCF54C8}">
       <tableStyleElement type="totalRow" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{C9538387-6D3D-4167-9657-1D3AAE326E8B}">
+    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{C3062DAD-4407-4B2A-A152-054F6691927D}">
       <tableStyleElement type="totalRow" dxfId="77"/>
     </tableStyle>
-    <tableStyle name="商务深色系列12" count="1" xr9:uid="{9137AA45-A72B-4E9C-8DEE-BF15B6DEAF20}">
+    <tableStyle name="商务深色系列12" count="1" xr9:uid="{3667D65B-E00F-4E5D-BD0B-2517AAB09474}">
       <tableStyleElement type="firstRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="商务深色系列1" count="1" xr9:uid="{8E97569A-8BDF-4EDF-9330-378E07ADAB43}">
+    <tableStyle name="商务深色系列1" count="1" xr9:uid="{5FA95BE0-74E4-4419-8934-00C8861713D1}">
       <tableStyleElement type="headerRow" dxfId="79"/>
     </tableStyle>
-    <tableStyle name="商务首列填充05" count="1" xr9:uid="{901E1C21-DE33-4708-B239-95CED394AA3D}">
+    <tableStyle name="商务首列填充05" count="1" xr9:uid="{6EAFEEEF-E5D2-4937-8E6A-95345F7D64E1}">
       <tableStyleElement type="firstColumn" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="商务首列填充04" count="1" xr9:uid="{E7C73E6F-A260-45EC-BB4E-C775FD22F2A8}">
+    <tableStyle name="商务首列填充04" count="1" xr9:uid="{64082818-D2B9-4ACA-8D24-3114B603D14B}">
       <tableStyleElement type="firstColumn" dxfId="81"/>
     </tableStyle>
-    <tableStyle name="商务首列填充03" count="1" xr9:uid="{FA19E81C-6C10-4B3E-9472-3932DC86D330}">
+    <tableStyle name="商务首列填充03" count="1" xr9:uid="{6C973C1A-6C6C-49E6-AC6D-26A76C1FC7B9}">
       <tableStyleElement type="firstColumn" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{70778008-8C0F-4C8A-B95F-035617BC63B5}">
+    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{523C2ED7-9489-45FA-8A05-6A81DD8B4A66}">
       <tableStyleElement type="secondRowStripe" dxfId="83"/>
     </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{8BD3096A-F631-499D-8196-71224A38BE20}">
+    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{25611BEB-483A-4451-80D1-737E49E83728}">
       <tableStyleElement type="firstColumn" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{5819F668-DDCF-4795-9BF4-8F0DA8B9ABF9}">
+    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{355C3500-986B-4757-BA14-175B148B6225}">
       <tableStyleElement type="firstColumn" dxfId="85"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{09B6AFD3-FE20-4C76-9B61-F3655ECC1A12}">
+    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{9E4A3345-F9A9-4501-92B6-27A26F9CF07E}">
       <tableStyleElement type="firstColumn" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{D0EB5956-EB37-4173-AE60-E8D0CFFE2533}">
+    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{17287575-4575-4B99-9822-A10980737300}">
       <tableStyleElement type="firstColumn" dxfId="87"/>
     </tableStyle>
-    <tableStyle name="首列填充系列2" count="1" xr9:uid="{B1A042DB-3CC9-4CEF-9B8D-46216A58634F}">
+    <tableStyle name="首列填充系列2" count="1" xr9:uid="{86E24B18-2CDA-4006-A555-E25D9AE85305}">
       <tableStyleElement type="firstColumn" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{5221B8B8-B780-4370-A15A-BA4CD693762A}">
+    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{9340C1DB-EAE8-4F75-9A1E-29DB57962DE9}">
       <tableStyleElement type="secondColumnStripe" dxfId="89"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{6481B283-9A5C-45DD-8945-155EED3A07E5}">
+    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{A3B8149C-FE05-41CA-9D9F-B8B5AD0676BC}">
       <tableStyleElement type="firstColumnStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{82D27D2E-520B-4299-889B-4D665338C81A}">
+    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{B43DCE6C-9D6A-42CD-8D7F-80B37BE79699}">
       <tableStyleElement type="firstColumnStripe" dxfId="91"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{931B5E60-C22D-4D7F-B492-ECB6BAC3A71B}">
+    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{9F36044C-02FC-4823-8F47-088237A5DEC9}">
       <tableStyleElement type="secondColumnStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{E32F6863-B652-46ED-8151-DAE5E23FEEDB}">
+    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{28EA4A81-AB1E-45E9-B3B2-FC0FB2334EDD}">
       <tableStyleElement type="secondColumnStripe" dxfId="93"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{19AB9E38-D8C3-45C8-8BF7-30B2CF07F0DD}">
+    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{9DA709CA-BEF7-40CC-86B3-9EB1AE222C61}">
       <tableStyleElement type="secondColumnStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{F1D4E604-B8AF-47D6-958D-BEF10B266D7D}">
+    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{4B84DE8E-9097-453B-B052-0B5B82F72184}">
       <tableStyleElement type="firstColumnStripe" dxfId="95"/>
     </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{E688BBC7-18E8-402E-90C8-E83242082220}">
+    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{982A7C24-366D-40C9-855F-F393A0E533CB}">
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{9E58F025-B7D7-4E98-9203-B272DBB29329}">
+    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{C175C1C2-4DD6-4940-97BD-94506A0EB643}">
       <tableStyleElement type="secondRowStripe" dxfId="97"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{C2BE1736-8318-49F6-9A38-BE913D1C98AE}">
+    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{C6C89436-8B10-4FE3-9C9C-AD83707C2AE5}">
       <tableStyleElement type="secondColumnStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{25155D78-70F3-4ECA-B591-2048641B3179}">
+    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{2E3E9BE6-49C8-46CE-863D-D7F15225B496}">
       <tableStyleElement type="secondColumnStripe" dxfId="99"/>
     </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{6AAD02D3-179C-400B-9A12-6B123322F327}">
+    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{2B06B3C9-8B66-4AA8-8C38-A0D68BB2491E}">
       <tableStyleElement type="secondColumnStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{5665FC39-A0D4-465F-8963-32BE71C18071}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{352F72A3-8B26-4BBE-B711-2FC1F50F865D}">
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="101"/>
     </tableStyle>
   </tableStyles>
@@ -3323,8 +3323,8 @@
   <sheetPr/>
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1"/>
@@ -4082,7 +4082,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7443a16-1628-4889-8185-da984473e765}</x14:id>
+          <x14:id>{4a508b9c-5118-4b4c-a954-e153153ed772}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4105,7 +4105,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a24a6278-2674-47cc-ad89-529bc6f296d1}</x14:id>
+          <x14:id>{0b8b90b1-0983-4c03-aa87-7c5a69eeb88e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4128,7 +4128,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{077ee10f-9cc1-4545-a294-cb90d33fd632}</x14:id>
+          <x14:id>{79592aec-7da8-4e1f-a14c-2f0764981dc7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4151,7 +4151,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{512a816a-2b34-4b57-af4b-432cd6d19a1d}</x14:id>
+          <x14:id>{7dca8d9f-5ca2-4786-9248-582b85f6a819}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4177,7 +4177,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{793d6ce6-b85b-4d2d-bff3-11f887368db7}</x14:id>
+          <x14:id>{f80f4ff2-e5d7-4e56-a552-c11668f220b9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4200,7 +4200,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e34e0e78-f376-450f-97d5-d91107423b5f}</x14:id>
+          <x14:id>{3f06c324-505c-484f-9ffe-61f0e817d741}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4223,7 +4223,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ab18ae13-c0ba-47f5-a4ca-82407d7c625b}</x14:id>
+          <x14:id>{9ec8c17d-69ba-4e36-bfee-e46c69370e74}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4243,7 +4243,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{580d21ab-c2dc-4fc2-8572-16ec97a61df4}</x14:id>
+          <x14:id>{75edb44a-213f-4510-ac10-395a01356916}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4263,7 +4263,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7102b105-672a-45b1-a9cf-71fe6d87302f}</x14:id>
+          <x14:id>{4c3d8752-3c84-4e22-8561-c799f864f143}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4280,7 +4280,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd87193e-51b8-439a-861b-67a1b9c66460}</x14:id>
+          <x14:id>{3296ada3-3438-4fb0-919c-102ea52e2a77}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4303,7 +4303,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9632bcf9-6de1-47b2-827d-86d01ef6736b}</x14:id>
+          <x14:id>{ebed927c-751c-4c94-9ee4-e3d9209d5c48}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4324,7 +4324,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7443a16-1628-4889-8185-da984473e765}">
+          <x14:cfRule type="dataBar" id="{4a508b9c-5118-4b4c-a954-e153153ed772}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4334,7 +4334,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a24a6278-2674-47cc-ad89-529bc6f296d1}">
+          <x14:cfRule type="dataBar" id="{0b8b90b1-0983-4c03-aa87-7c5a69eeb88e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4344,7 +4344,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{077ee10f-9cc1-4545-a294-cb90d33fd632}">
+          <x14:cfRule type="dataBar" id="{79592aec-7da8-4e1f-a14c-2f0764981dc7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4354,7 +4354,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{512a816a-2b34-4b57-af4b-432cd6d19a1d}">
+          <x14:cfRule type="dataBar" id="{7dca8d9f-5ca2-4786-9248-582b85f6a819}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4364,7 +4364,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{793d6ce6-b85b-4d2d-bff3-11f887368db7}">
+          <x14:cfRule type="dataBar" id="{f80f4ff2-e5d7-4e56-a552-c11668f220b9}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4374,7 +4374,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e34e0e78-f376-450f-97d5-d91107423b5f}">
+          <x14:cfRule type="dataBar" id="{3f06c324-505c-484f-9ffe-61f0e817d741}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4384,7 +4384,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ab18ae13-c0ba-47f5-a4ca-82407d7c625b}">
+          <x14:cfRule type="dataBar" id="{9ec8c17d-69ba-4e36-bfee-e46c69370e74}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4394,7 +4394,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{580d21ab-c2dc-4fc2-8572-16ec97a61df4}">
+          <x14:cfRule type="dataBar" id="{75edb44a-213f-4510-ac10-395a01356916}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4404,7 +4404,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7102b105-672a-45b1-a9cf-71fe6d87302f}">
+          <x14:cfRule type="dataBar" id="{4c3d8752-3c84-4e22-8561-c799f864f143}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4414,7 +4414,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd87193e-51b8-439a-861b-67a1b9c66460}">
+          <x14:cfRule type="dataBar" id="{3296ada3-3438-4fb0-919c-102ea52e2a77}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -4424,7 +4424,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9632bcf9-6de1-47b2-827d-86d01ef6736b}">
+          <x14:cfRule type="dataBar" id="{ebed927c-751c-4c94-9ee4-e3d9209d5c48}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
